--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_156.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_156.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32468-d77141-Reviews-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>130</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Courtyard-By-Marriott-LA-Hacienda-HeightsOrange-County.h4548.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_156.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_156.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="513">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1447 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r570441756-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>32468</t>
+  </si>
+  <si>
+    <t>77141</t>
+  </si>
+  <si>
+    <t>570441756</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>Nice, clean, overlooking the valley</t>
+  </si>
+  <si>
+    <t>Really nice hotel, clean and staff friendly.  Rooms are with open windows and comfortable for a Courtyard.  Business center is poor or not working if you need to print your boarding pass - 3 computers - 2 printes, none working.  The hotel is not in the downtown core, but they are shopping mall close by and nice view of the valley.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r565175323-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>565175323</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The front desk staff are great. The rooms are very clean spacious and decorated nicely. It is in a great location with lots of restaurants and shopping. If you love Asian food you will find many great restaurants in the area. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r564723871-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>564723871</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>They make it easy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When I go to LA for work I always stay here. Easy to jump onto highway and shoot into downtown. Beds are comfy and rooms always clean. Have never had any issues. Staff is always wel c oming and the bistro is tasty and quick. Pricey though. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r550013017-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>550013017</t>
+  </si>
+  <si>
+    <t>12/29/2017</t>
+  </si>
+  <si>
+    <t>Will not recommend this location!</t>
+  </si>
+  <si>
+    <t>I booked 2 rooms for 2 nights at this location. I came around 10 pm to check in and the lady at front desk that she did not have the rooms together. I agreed and went to what we got. To my disappointment, the heater/AC unit never worked all night. The outlets by any lamps did not work and there was a pattern of sound that stayed continuously through the walls. After a restless night with no sleep, in the morning went to the front desk to request a room change for the second night. At first she said nothing was available. After begging due to lack of sleep (me and my children), she gave me a room that was in the corner with a small window. I went back and requested will wait until they have an equivalent room available. For a family of 4, we had a room with 1 king bed. Even requested if she had 2 queen beds. She said she had nothing available. I continued to request and felt was begging over and over. As I was leaving the counter, the lady shook her head and rolled her eyes. She called back saying engineer will come and check on the problems. I am highly disappointed with the the lack of courstey and customer service a company  like Marriott offers. Very very poor service!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>CourtyardHacieHghts, Manager at Courtyard Los Angeles Hacienda Heights/Orange County, responded to this reviewResponded December 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2017</t>
+  </si>
+  <si>
+    <t>I booked 2 rooms for 2 nights at this location. I came around 10 pm to check in and the lady at front desk that she did not have the rooms together. I agreed and went to what we got. To my disappointment, the heater/AC unit never worked all night. The outlets by any lamps did not work and there was a pattern of sound that stayed continuously through the walls. After a restless night with no sleep, in the morning went to the front desk to request a room change for the second night. At first she said nothing was available. After begging due to lack of sleep (me and my children), she gave me a room that was in the corner with a small window. I went back and requested will wait until they have an equivalent room available. For a family of 4, we had a room with 1 king bed. Even requested if she had 2 queen beds. She said she had nothing available. I continued to request and felt was begging over and over. As I was leaving the counter, the lady shook her head and rolled her eyes. She called back saying engineer will come and check on the problems. I am highly disappointed with the the lack of courstey and customer service a company  like Marriott offers. Very very poor service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r539717757-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>539717757</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Chinese visitors</t>
+  </si>
+  <si>
+    <t>1st i have no clue who designed this place without an elevator on the left side of the building rooms 201 ++, with heavy luggage it is a nightmare walk around the whole building! Local population all Asian. local restaurants 75% Asian. Chinese business visitors use this hotel but the breakfast is American style and none of the Asian visitors like it (today a group of 25 Chinese Government officials are staying here), maybe management should try to hire Chinese speaking front desk clerks? overall just an average Courtyard hotel on top of a hill, walk to restaurants and malls. meutermediaMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Joanne J, General Manager at Courtyard Los Angeles Hacienda Heights/Orange County, responded to this reviewResponded November 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2017</t>
+  </si>
+  <si>
+    <t>1st i have no clue who designed this place without an elevator on the left side of the building rooms 201 ++, with heavy luggage it is a nightmare walk around the whole building! Local population all Asian. local restaurants 75% Asian. Chinese business visitors use this hotel but the breakfast is American style and none of the Asian visitors like it (today a group of 25 Chinese Government officials are staying here), maybe management should try to hire Chinese speaking front desk clerks? overall just an average Courtyard hotel on top of a hill, walk to restaurants and malls. meutermediaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r538994700-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>538994700</t>
+  </si>
+  <si>
+    <t>11/06/2017</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>Stayed for 3 nights. Very close to the shops so you will be looked after if you want dining. 10mins walk to a large shopping centre so there are things to do if you are there for an extended period of stay. Printing service was for free, defn a plus when travelling for business. Rooms were a bit dated, but acceptable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r496492393-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>496492393</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>What a great location!  Love that it's so close to shops and a ton of great eatery's, from ramen to chick fil a to Krispy Kreme.  The hotel staff were all friendly and attentive tho we did have minimal interaction with them.  The property is going though a renovation currently so the elevator is down, luckily there's only 3 floors and we got a room in the 1st floor.  Parking is free and that's a huge plus.  The property is very clean and so was our room.  The only thing stopping me from giving it a full excellent rating is that the walls are thin, you are going to hear folks talking as they walk down the hall and you will know when your neighbor is in the shower as the water turns on you'll hear it.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2017</t>
+  </si>
+  <si>
+    <t>What a great location!  Love that it's so close to shops and a ton of great eatery's, from ramen to chick fil a to Krispy Kreme.  The hotel staff were all friendly and attentive tho we did have minimal interaction with them.  The property is going though a renovation currently so the elevator is down, luckily there's only 3 floors and we got a room in the 1st floor.  Parking is free and that's a huge plus.  The property is very clean and so was our room.  The only thing stopping me from giving it a full excellent rating is that the walls are thin, you are going to hear folks talking as they walk down the hall and you will know when your neighbor is in the shower as the water turns on you'll hear it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r487394431-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>487394431</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>Adequate for a night</t>
+  </si>
+  <si>
+    <t>Hotel was adequate for a one night stay.Its an easy 20 minuter drive from Ontario Airport. Beds were comfortable. I stayed in the 2nd floor and it was quite while I was there. Tons of free parking at the facility which is always a plus. However, the facility felt very dated and felt dusty but the staff was excellent and helpful. So its fine if you just want to crash for a night. It's in a predominantly Asian area with tons of restaurant for Asian cuisine.  Taiwanese, Korean etc were everywhere. Unfortunately I didn't get a chance to try any of these restaurants due to mu short stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Joanne J, Manager at Courtyard Los Angeles Hacienda Heights/Orange County, responded to this reviewResponded May 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2017</t>
+  </si>
+  <si>
+    <t>Hotel was adequate for a one night stay.Its an easy 20 minuter drive from Ontario Airport. Beds were comfortable. I stayed in the 2nd floor and it was quite while I was there. Tons of free parking at the facility which is always a plus. However, the facility felt very dated and felt dusty but the staff was excellent and helpful. So its fine if you just want to crash for a night. It's in a predominantly Asian area with tons of restaurant for Asian cuisine.  Taiwanese, Korean etc were everywhere. Unfortunately I didn't get a chance to try any of these restaurants due to mu short stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r467676007-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>467676007</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>Business Trip, first time in LA</t>
+  </si>
+  <si>
+    <t>I have never been to La before and had no clue where to stay.I tried to get a room close to Anaheim, but everything was booked out due to events and busy time of year. The lady on the 800 for Marriott suggested this place. I was not to thrilled at the rates I was given. I am staying here for 10 days. I think it worked to an average of $209 per night for my stay. My company gives me $99 plus taxes. So it was kinda of high. But if you consider it is in LA, and the property is beyond clean, and the staff is amazing. It is a smart choice.The amenities in the area are excellent. Anything that you can think of for food, Walmart, CVS, malls, is very close. There is a Asian retirement center next door.So old Asians walking around everywhere is funny.This area is very heavily populated by Asian's.I had no clue to this. but I love it. Great Sushi, and Chinese food. Amazing.Overall it is expensive, but I think worth it in the long run.No breakfast at $200 a night ? Criminal.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Joanne J, Manager at Courtyard Los Angeles Hacienda Heights/Orange County, responded to this reviewResponded March 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2017</t>
+  </si>
+  <si>
+    <t>I have never been to La before and had no clue where to stay.I tried to get a room close to Anaheim, but everything was booked out due to events and busy time of year. The lady on the 800 for Marriott suggested this place. I was not to thrilled at the rates I was given. I am staying here for 10 days. I think it worked to an average of $209 per night for my stay. My company gives me $99 plus taxes. So it was kinda of high. But if you consider it is in LA, and the property is beyond clean, and the staff is amazing. It is a smart choice.The amenities in the area are excellent. Anything that you can think of for food, Walmart, CVS, malls, is very close. There is a Asian retirement center next door.So old Asians walking around everywhere is funny.This area is very heavily populated by Asian's.I had no clue to this. but I love it. Great Sushi, and Chinese food. Amazing.Overall it is expensive, but I think worth it in the long run.No breakfast at $200 a night ? Criminal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r466504289-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>466504289</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel ... only a few blocks from I-60</t>
+  </si>
+  <si>
+    <t>This was a nice hotel --- Pleasant stay.Roger at the desk was very nice.The hotel is located up high on a hill. Great view.The pool seemed nice although I didn't use it.There was a nice exercise room with a rack of free weights.There were lots of stores nearby.Included in my hotel photos is a picture of the fish counter at a store a block from the hotel ... it demonstrates the large Asian population.Very fascinating.The hotel was clean and all of the staff were pleasant.There was plenty of hot water and towels.The water pressure was good.A renovation in the hotel was going on while I was there .... but it was fine.As far at "cons" go:--no microwave in my room (did have a mini fridge)--A/C heat system did not regulate well --slight sweet smell from a cleaner in room (no smell is always best)All in all a nice stay in a nice area.  I would stay here again.: -)MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>This was a nice hotel --- Pleasant stay.Roger at the desk was very nice.The hotel is located up high on a hill. Great view.The pool seemed nice although I didn't use it.There was a nice exercise room with a rack of free weights.There were lots of stores nearby.Included in my hotel photos is a picture of the fish counter at a store a block from the hotel ... it demonstrates the large Asian population.Very fascinating.The hotel was clean and all of the staff were pleasant.There was plenty of hot water and towels.The water pressure was good.A renovation in the hotel was going on while I was there .... but it was fine.As far at "cons" go:--no microwave in my room (did have a mini fridge)--A/C heat system did not regulate well --slight sweet smell from a cleaner in room (no smell is always best)All in all a nice stay in a nice area.  I would stay here again.: -)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r461548355-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>461548355</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>Just one thing that I believed should have been done.</t>
+  </si>
+  <si>
+    <t>My home had a fire, so I needed to go some place and rest the next day. So I choose the Marriott Hotel near by my home. I figured that there would be no problem resting as apposed to a motel 6. The staff was nice and as a gold member upgraded me to a suite. I then settled in with my wife and two daughters so that I could make a meeting the next day. I had made the appointment late in the day so I would be rested. Then at  8:00 am there was pounding of hammers and the sound of saws. It seemed like they were in the room with me. I thought that it would stop shortly but it did not. It went on for the entire day. I could not sleep and had to cancel my very important appointment. 
+So the next day I requested to talk to the general manager. I told her about the circumstances in hopes that she would comp that day. She told me that they were working on the roof right above me. Since I was on the very top floor it was like they were in the room. She also advised me that there were papers in the rooms to let clients know. I saw no such paper and since I checked in late and just wanted to go to the room and rest, I really was not looking...My home had a fire, so I needed to go some place and rest the next day. So I choose the Marriott Hotel near by my home. I figured that there would be no problem resting as apposed to a motel 6. The staff was nice and as a gold member upgraded me to a suite. I then settled in with my wife and two daughters so that I could make a meeting the next day. I had made the appointment late in the day so I would be rested. Then at  8:00 am there was pounding of hammers and the sound of saws. It seemed like they were in the room with me. I thought that it would stop shortly but it did not. It went on for the entire day. I could not sleep and had to cancel my very important appointment. So the next day I requested to talk to the general manager. I told her about the circumstances in hopes that she would comp that day. She told me that they were working on the roof right above me. Since I was on the very top floor it was like they were in the room. She also advised me that there were papers in the rooms to let clients know. I saw no such paper and since I checked in late and just wanted to go to the room and rest, I really was not looking or reading anything in the room. The way the clients should have been advised about this construction, at the time of checking in they should have been told that there was construction going on and given the choice to either complete the check in or a room as far away from the noise. Because, like my self a client may just be looking to go and rest. Because of this reason of not giving me that choice I felt that the room should had been comp for my inconvience. She did not agree and felt the notice was enough for me to make my choice. When a person checks in to a hotel like the marriott, they expect a much higher standards then the noisie motel 6 by the freeway. They expect a clean, safe and some what quiet room. I could had went to a motel and paid a lower rate to take a chance of the type of enviorment I was going to be in. If a hotel wants to charge more and advertise as a much better place to stay for the money. Then they must deliver without excuses in doing that. If they do fail, then there must be a demorstation on there behalf that they reconize and will correct the oversite for the next time. They must also show that the client is not the one to have to suffer for there error. I am here still at the hotel for one or two more days and I hope that the management team will show me that they care. I also hope that they will take this as constructive and not negative. I will ad to this after my stay is completed.Respectfully,Marriott Client (Gold member)MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Joanne J, Manager at Courtyard Los Angeles Hacienda Heights/Orange County, responded to this reviewResponded February 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2017</t>
+  </si>
+  <si>
+    <t>My home had a fire, so I needed to go some place and rest the next day. So I choose the Marriott Hotel near by my home. I figured that there would be no problem resting as apposed to a motel 6. The staff was nice and as a gold member upgraded me to a suite. I then settled in with my wife and two daughters so that I could make a meeting the next day. I had made the appointment late in the day so I would be rested. Then at  8:00 am there was pounding of hammers and the sound of saws. It seemed like they were in the room with me. I thought that it would stop shortly but it did not. It went on for the entire day. I could not sleep and had to cancel my very important appointment. 
+So the next day I requested to talk to the general manager. I told her about the circumstances in hopes that she would comp that day. She told me that they were working on the roof right above me. Since I was on the very top floor it was like they were in the room. She also advised me that there were papers in the rooms to let clients know. I saw no such paper and since I checked in late and just wanted to go to the room and rest, I really was not looking...My home had a fire, so I needed to go some place and rest the next day. So I choose the Marriott Hotel near by my home. I figured that there would be no problem resting as apposed to a motel 6. The staff was nice and as a gold member upgraded me to a suite. I then settled in with my wife and two daughters so that I could make a meeting the next day. I had made the appointment late in the day so I would be rested. Then at  8:00 am there was pounding of hammers and the sound of saws. It seemed like they were in the room with me. I thought that it would stop shortly but it did not. It went on for the entire day. I could not sleep and had to cancel my very important appointment. So the next day I requested to talk to the general manager. I told her about the circumstances in hopes that she would comp that day. She told me that they were working on the roof right above me. Since I was on the very top floor it was like they were in the room. She also advised me that there were papers in the rooms to let clients know. I saw no such paper and since I checked in late and just wanted to go to the room and rest, I really was not looking or reading anything in the room. The way the clients should have been advised about this construction, at the time of checking in they should have been told that there was construction going on and given the choice to either complete the check in or a room as far away from the noise. Because, like my self a client may just be looking to go and rest. Because of this reason of not giving me that choice I felt that the room should had been comp for my inconvience. She did not agree and felt the notice was enough for me to make my choice. When a person checks in to a hotel like the marriott, they expect a much higher standards then the noisie motel 6 by the freeway. They expect a clean, safe and some what quiet room. I could had went to a motel and paid a lower rate to take a chance of the type of enviorment I was going to be in. If a hotel wants to charge more and advertise as a much better place to stay for the money. Then they must deliver without excuses in doing that. If they do fail, then there must be a demorstation on there behalf that they reconize and will correct the oversite for the next time. They must also show that the client is not the one to have to suffer for there error. I am here still at the hotel for one or two more days and I hope that the management team will show me that they care. I also hope that they will take this as constructive and not negative. I will ad to this after my stay is completed.Respectfully,Marriott Client (Gold member)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r458719371-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>458719371</t>
+  </si>
+  <si>
+    <t>02/11/2017</t>
+  </si>
+  <si>
+    <t>Pretty good. A little pricey</t>
+  </si>
+  <si>
+    <t>The staff was professional and courteous. The room was nicely decorated. The shower was comfortable, and the rooms were clean.  At over $200 a night for the room however seemed a bit excessive especially with no complimentary breakfast.  Also the walls seemed a little thin.  I was able to hear what sounded like a normal conversation in an adjacent room. Another good note is that the AC/Heater unit in my room didn't rattle which has been a problem for me in the past at other hotels.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r435086935-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>435086935</t>
+  </si>
+  <si>
+    <t>11/06/2016</t>
+  </si>
+  <si>
+    <t>Enjoyed the stay in courtyard</t>
+  </si>
+  <si>
+    <t>For this trip, I tried Courtyard for the first time, and it's a great experience for the comfortable room and professional and friendly staff. The facility, lobby, location are great, very convenient for getting good and close to a park. Also for the first time I forgot some clothes in the hotel, and the front desk kept it very well for my friend's pick up.Will take this in first priority to the future stay in LA.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r428251939-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>428251939</t>
+  </si>
+  <si>
+    <t>10/15/2016</t>
+  </si>
+  <si>
+    <t>Great Staff! Great Service!</t>
+  </si>
+  <si>
+    <t>It finally happened. I left my iPad in my room and flew away. I called Jackie at the front desk from Vegas and within minutes the hotel staff found the iPad, called me, and carried out the shipping to my home. The hotel has a very inviting lobby. Rather bistro-like and welcoming. The site is near excellent restaurants and stores. You can also walk the nearby hills and look over greater Los Angeles. Rather beautiful view. The rooms are highest quality, as you would expect. And again thank you Jackie!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r422248233-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>422248233</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t>Great location and wonderful staff!</t>
+  </si>
+  <si>
+    <t>I love this hotel, mainly because of the customer service from Jackie. She is always so helpful, always smiling, and so sweet!! 
+This is one of the better hotels in the area which serves predominately the Asian population. This area mostly has Taiwanese, Chinese, and Korean foods so if you're from an area that lack authentic Asian food and you don't want to head on out to the super busy Chinatown, you have definitely come to the right place!
+Rooms: They're clean, comfortable, and spacious. The rooms are modern. What more can you ask for? There's mini fridge to store all my perishable finds so I'm happy! 
+More importantly, what can you eat and do in walking distance? The plaza right next to the hotel has a bakery called 85 Degrees. It's a famous Taiwanese bakery in which you can try their famous breads and their famous sea salt green tea or sea salt coffee. It's a local thing so it's a good place to get your carbs on. In that same plaza is my favorite ramen restaurant in the area called Tamaya - get the pork based soup. There's also a Japanese $1.50 store called Daiso which has a bunch of cute Asian stuff. It's basically the Asian 99-cent store. There is an Asian market called 168. If you are not familiar with Asian markets, I'd recommend walking around inside to get a sense of what they're like. Asian...I love this hotel, mainly because of the customer service from Jackie. She is always so helpful, always smiling, and so sweet!! This is one of the better hotels in the area which serves predominately the Asian population. This area mostly has Taiwanese, Chinese, and Korean foods so if you're from an area that lack authentic Asian food and you don't want to head on out to the super busy Chinatown, you have definitely come to the right place!Rooms: They're clean, comfortable, and spacious. The rooms are modern. What more can you ask for? There's mini fridge to store all my perishable finds so I'm happy! More importantly, what can you eat and do in walking distance? The plaza right next to the hotel has a bakery called 85 Degrees. It's a famous Taiwanese bakery in which you can try their famous breads and their famous sea salt green tea or sea salt coffee. It's a local thing so it's a good place to get your carbs on. In that same plaza is my favorite ramen restaurant in the area called Tamaya - get the pork based soup. There's also a Japanese $1.50 store called Daiso which has a bunch of cute Asian stuff. It's basically the Asian 99-cent store. There is an Asian market called 168. If you are not familiar with Asian markets, I'd recommend walking around inside to get a sense of what they're like. Asian markets are known for their fresh seafood - located at the back. Across the street from the hotel is a huge park - most locals walk around there or go hiking. Parking there is free on the weekdays but why park when you can just cross the street? It does get crowded in the mornings on the weekends as the older Asian crowd is doing their tai chi. There's also the Puente Hills mall that is nearby but it's an older mall and not much going on. I would skip it unless you need to go to Macy's or any other typical mall store.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>I love this hotel, mainly because of the customer service from Jackie. She is always so helpful, always smiling, and so sweet!! 
+This is one of the better hotels in the area which serves predominately the Asian population. This area mostly has Taiwanese, Chinese, and Korean foods so if you're from an area that lack authentic Asian food and you don't want to head on out to the super busy Chinatown, you have definitely come to the right place!
+Rooms: They're clean, comfortable, and spacious. The rooms are modern. What more can you ask for? There's mini fridge to store all my perishable finds so I'm happy! 
+More importantly, what can you eat and do in walking distance? The plaza right next to the hotel has a bakery called 85 Degrees. It's a famous Taiwanese bakery in which you can try their famous breads and their famous sea salt green tea or sea salt coffee. It's a local thing so it's a good place to get your carbs on. In that same plaza is my favorite ramen restaurant in the area called Tamaya - get the pork based soup. There's also a Japanese $1.50 store called Daiso which has a bunch of cute Asian stuff. It's basically the Asian 99-cent store. There is an Asian market called 168. If you are not familiar with Asian markets, I'd recommend walking around inside to get a sense of what they're like. Asian...I love this hotel, mainly because of the customer service from Jackie. She is always so helpful, always smiling, and so sweet!! This is one of the better hotels in the area which serves predominately the Asian population. This area mostly has Taiwanese, Chinese, and Korean foods so if you're from an area that lack authentic Asian food and you don't want to head on out to the super busy Chinatown, you have definitely come to the right place!Rooms: They're clean, comfortable, and spacious. The rooms are modern. What more can you ask for? There's mini fridge to store all my perishable finds so I'm happy! More importantly, what can you eat and do in walking distance? The plaza right next to the hotel has a bakery called 85 Degrees. It's a famous Taiwanese bakery in which you can try their famous breads and their famous sea salt green tea or sea salt coffee. It's a local thing so it's a good place to get your carbs on. In that same plaza is my favorite ramen restaurant in the area called Tamaya - get the pork based soup. There's also a Japanese $1.50 store called Daiso which has a bunch of cute Asian stuff. It's basically the Asian 99-cent store. There is an Asian market called 168. If you are not familiar with Asian markets, I'd recommend walking around inside to get a sense of what they're like. Asian markets are known for their fresh seafood - located at the back. Across the street from the hotel is a huge park - most locals walk around there or go hiking. Parking there is free on the weekdays but why park when you can just cross the street? It does get crowded in the mornings on the weekends as the older Asian crowd is doing their tai chi. There's also the Puente Hills mall that is nearby but it's an older mall and not much going on. I would skip it unless you need to go to Macy's or any other typical mall store.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r377714028-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>377714028</t>
+  </si>
+  <si>
+    <t>05/29/2016</t>
+  </si>
+  <si>
+    <t>EXCELLENT</t>
+  </si>
+  <si>
+    <t>We had a great room, King Suite with a double bed, &amp; sofa bed ( the sofa bed was just ok a little to soft) but a great view of the pool. We had excellent service as we needed more coffee&amp; sugar &amp; the gentleman came with lots &amp; showed us how to open balcony.Front staff were excellent, friendly, &amp; very helpful!!</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r366072061-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>366072061</t>
+  </si>
+  <si>
+    <t>04/21/2016</t>
+  </si>
+  <si>
+    <t>Never went</t>
+  </si>
+  <si>
+    <t>I booked this through tripadvisor then my plans changed to one day earlier. I never received an email advising me of my upcoming stay. So when I saw a charge for $189 on my bank statement I called the hotel and spoke to the manager about giving me a break as I have stayed there often because its really the only place to stay in Hacienda Heights and I have enjoyed staying there in the past . The manager gave me some inplausible explanation that ethics were involved as if she gave me a break that wouldn't be fair to the other people who they had decided to keep their money. A good example of a Corporate serving ethics. We all know how ethical Corporations are. Any way I never received an email alerting me to my upcoming stay which cost me $189.MoreShow less</t>
+  </si>
+  <si>
+    <t>Maritza M, Manager at Courtyard Los Angeles Hacienda Heights/Orange County, responded to this reviewResponded April 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2016</t>
+  </si>
+  <si>
+    <t>I booked this through tripadvisor then my plans changed to one day earlier. I never received an email advising me of my upcoming stay. So when I saw a charge for $189 on my bank statement I called the hotel and spoke to the manager about giving me a break as I have stayed there often because its really the only place to stay in Hacienda Heights and I have enjoyed staying there in the past . The manager gave me some inplausible explanation that ethics were involved as if she gave me a break that wouldn't be fair to the other people who they had decided to keep their money. A good example of a Corporate serving ethics. We all know how ethical Corporations are. Any way I never received an email alerting me to my upcoming stay which cost me $189.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r365242740-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>365242740</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>Service Is Outstanding!</t>
+  </si>
+  <si>
+    <t>I have stayed in this hotel for over a decade when in Southern California for both business and pleasure. It is centrally located for those needing access to the entire L.A. basin, with plenty of options if one route is especially bad with traffic.  It went through a big renovation a few years ago and it really improved the lobby area. Rooms are basic and clean. On my recent visit, Expedia screwed up the reservation and both Roger and Sergio at the front desk were pleasant and very helpful...and Expedia wasn't doing them any favors. They remained in good humor and worked through the issue for me, and even provided me complimentary coffee from their barista for the inconvenience (that they didn't even cause).  Great restaurants in the area with easy on/off to the 60 freeway. Gas stations and convenience stores within walking distance. Love this place!MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed in this hotel for over a decade when in Southern California for both business and pleasure. It is centrally located for those needing access to the entire L.A. basin, with plenty of options if one route is especially bad with traffic.  It went through a big renovation a few years ago and it really improved the lobby area. Rooms are basic and clean. On my recent visit, Expedia screwed up the reservation and both Roger and Sergio at the front desk were pleasant and very helpful...and Expedia wasn't doing them any favors. They remained in good humor and worked through the issue for me, and even provided me complimentary coffee from their barista for the inconvenience (that they didn't even cause).  Great restaurants in the area with easy on/off to the 60 freeway. Gas stations and convenience stores within walking distance. Love this place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r349553815-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>349553815</t>
+  </si>
+  <si>
+    <t>02/20/2016</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is my 2nd time staying here, love the location good for many chinese or Taiwanese food, close to freeway n u can get food or prarl tea driNks by walk8 ng distanceRoom is actually getting bit old，lobby looks very nice. Hallways look a bit out of shade also. I stayed in kings room which is quite decent side for 2 people. </t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r346125786-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>346125786</t>
+  </si>
+  <si>
+    <t>02/09/2016</t>
+  </si>
+  <si>
+    <t>Nice for a business trip</t>
+  </si>
+  <si>
+    <t>Finding an elevator was a challenge. I wasn't the only one wondering around looking for one on the right side of the hotel. I just took the stairs.The hotel was nice. I wish I would have been able to use the pool! It was just too cold during our visit. Maybe next time!Hotel felt safe and convenient to get to the mall, restaurants, etc.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r331399399-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>331399399</t>
+  </si>
+  <si>
+    <t>12/08/2015</t>
+  </si>
+  <si>
+    <t>Typical U.S. business hotel, but the service is excellent</t>
+  </si>
+  <si>
+    <t>The Courtyard is the Courtyard, but this one has two things worth noting:  the service at this hotel was great - everybody was so nice and cheerful - and the bed was terrific.  Really comfortable and with soft sheets - just what I needed after a long-haul flight. Located in an "Asian" area, you can walk to many places for a variety of Asian foods.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Maritza M, Manager at Courtyard Los Angeles Hacienda Heights/Orange County, responded to this reviewResponded December 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2015</t>
+  </si>
+  <si>
+    <t>The Courtyard is the Courtyard, but this one has two things worth noting:  the service at this hotel was great - everybody was so nice and cheerful - and the bed was terrific.  Really comfortable and with soft sheets - just what I needed after a long-haul flight. Located in an "Asian" area, you can walk to many places for a variety of Asian foods.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r319971436-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>319971436</t>
+  </si>
+  <si>
+    <t>10/18/2015</t>
+  </si>
+  <si>
+    <t>Business was a Pleasure</t>
+  </si>
+  <si>
+    <t>The cook to order breakfast was always quick, fresh and plentiful. The evening's light fare was also quick, fresh and plentiful. Very pleasant staff. Room was very roomy, except the single vanity and closest area were too small for 2 people. Limited ice machines for such a large property. Parking was plentiful. Conveniently located to the Fwy, shopping and food.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r317391310-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>317391310</t>
+  </si>
+  <si>
+    <t>10/09/2015</t>
+  </si>
+  <si>
+    <t>Inner Beauty</t>
+  </si>
+  <si>
+    <t>This hotel looks like any other Courtyard on the outside and the room layout is very familiar.  Despite the average appearance, this place has a strong inner beauty starting with the entire staff.  Everyone we encountered, from the front desk staff to housekeeping and many others, was very friendly and went out of their way to make us feel comfortable and at home.  One of the staff literally ran down a hall to open a door for us so we didn't have to use our key card at a parking lot entrance.  Twice.  The room was clean and all of the features worked well.  The shower had very good water pressure.  The shower curtain was clean and hung properly.  The toilet had a strong flush.  The sink drained quickly.  Climate controls were responsive.  We slept well because of comfortable beds, blackout curtains and a quiet location.  I really appreciate all of these comforts of home in a hotel.  This Courtyard is a standout among Courtyards and hotels in general.  I plan to stay here if I am in the area again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel looks like any other Courtyard on the outside and the room layout is very familiar.  Despite the average appearance, this place has a strong inner beauty starting with the entire staff.  Everyone we encountered, from the front desk staff to housekeeping and many others, was very friendly and went out of their way to make us feel comfortable and at home.  One of the staff literally ran down a hall to open a door for us so we didn't have to use our key card at a parking lot entrance.  Twice.  The room was clean and all of the features worked well.  The shower had very good water pressure.  The shower curtain was clean and hung properly.  The toilet had a strong flush.  The sink drained quickly.  Climate controls were responsive.  We slept well because of comfortable beds, blackout curtains and a quiet location.  I really appreciate all of these comforts of home in a hotel.  This Courtyard is a standout among Courtyards and hotels in general.  I plan to stay here if I am in the area again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r311121742-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>311121742</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>A Nice Place To Stay</t>
+  </si>
+  <si>
+    <t>I stayed here for a dog show and found the property to be well situated, clean and with friendly staff.  The room was spacious and comfortable.  Breakfast was served to the judges' group in a special room and was the standard buffet fare.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r294472457-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>294472457</t>
+  </si>
+  <si>
+    <t>07/31/2015</t>
+  </si>
+  <si>
+    <t>Adequate older hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Courtyard is an older property with an updated lobby. The bistro staff were very nice and hardworking. The healthy start breakfast sandwich is very good. The room itself was dated with stained carpet and thin walls. I could hear everything going on in the room next door, which was too racy to describe. The pool was clean and well stocked with towels. The hiking trail across the street was nice to have. There are dozens and dozens of Asian restaurants within a mile or two, otherwise the dining options are a bit sparse unless you like chain fast casual types. </t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r289051352-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>289051352</t>
+  </si>
+  <si>
+    <t>07/14/2015</t>
+  </si>
+  <si>
+    <t>Extremely old property. They must know how to kick out their poor reviews.</t>
+  </si>
+  <si>
+    <t>Arrived late and for the most part everything was up to par for your typical original style Courtyard brand hotel (meaning this is one of the very first ones which are old and actually built with a court yard in the middle). The room was remodeled and everything seemed fine until it was time to go to sleep. The adjoining doors were completely sound transparent and although I could tell the person in the adjacent room was speaking to someone on the phone in a normal voice it was as if he was in my room. Now I personally believe you should be able to do what you want in your room as long as it's reasonable and not intentionally disturbing others so although it was a long night I just dealt with it. After the difficult night of sleeping I checked out and was greeted with the compulsory, "How was your stay?" to which I responded by describing the night I just had. During my maybe fifteen second response I could see the defensive posture put up by the operations manager who was the person checking me out of my room. He almost cut me off by saying, "You know I can't refund your night" which obviously surprised me as I wasn't asking for anything or expecting anything except maybe an acknowledgement. He continued by saying what he could do is refund the equivalent of 10% of the amount...Arrived late and for the most part everything was up to par for your typical original style Courtyard brand hotel (meaning this is one of the very first ones which are old and actually built with a court yard in the middle). The room was remodeled and everything seemed fine until it was time to go to sleep. The adjoining doors were completely sound transparent and although I could tell the person in the adjacent room was speaking to someone on the phone in a normal voice it was as if he was in my room. Now I personally believe you should be able to do what you want in your room as long as it's reasonable and not intentionally disturbing others so although it was a long night I just dealt with it. After the difficult night of sleeping I checked out and was greeted with the compulsory, "How was your stay?" to which I responded by describing the night I just had. During my maybe fifteen second response I could see the defensive posture put up by the operations manager who was the person checking me out of my room. He almost cut me off by saying, "You know I can't refund your night" which obviously surprised me as I wasn't asking for anything or expecting anything except maybe an acknowledgement. He continued by saying what he could do is refund the equivalent of 10% of the amount I had paid in points. Just for a reference point it takes about fifteen room nights to earn a free night at this property so it really was in my opinion a token offer. I told him to keep the points and that I wasn't asking for anything. Really in my opinion his offer was insulting. I didn't even really want an apology just maybe a statement admitting this was something I didn't imagine. Anyway that is what really gave me a poor opinion of the place. They obviously know people who are bothered by noise won't like it here and have taken the stance that they don't want to hear about it. Taking my personal feelings out of it that should probably be the only objective thing considered. If that sort of thing bothers you find a more modern hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Maritza M, Manager at Courtyard Los Angeles Hacienda Heights/Orange County, responded to this reviewResponded August 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2015</t>
+  </si>
+  <si>
+    <t>Arrived late and for the most part everything was up to par for your typical original style Courtyard brand hotel (meaning this is one of the very first ones which are old and actually built with a court yard in the middle). The room was remodeled and everything seemed fine until it was time to go to sleep. The adjoining doors were completely sound transparent and although I could tell the person in the adjacent room was speaking to someone on the phone in a normal voice it was as if he was in my room. Now I personally believe you should be able to do what you want in your room as long as it's reasonable and not intentionally disturbing others so although it was a long night I just dealt with it. After the difficult night of sleeping I checked out and was greeted with the compulsory, "How was your stay?" to which I responded by describing the night I just had. During my maybe fifteen second response I could see the defensive posture put up by the operations manager who was the person checking me out of my room. He almost cut me off by saying, "You know I can't refund your night" which obviously surprised me as I wasn't asking for anything or expecting anything except maybe an acknowledgement. He continued by saying what he could do is refund the equivalent of 10% of the amount...Arrived late and for the most part everything was up to par for your typical original style Courtyard brand hotel (meaning this is one of the very first ones which are old and actually built with a court yard in the middle). The room was remodeled and everything seemed fine until it was time to go to sleep. The adjoining doors were completely sound transparent and although I could tell the person in the adjacent room was speaking to someone on the phone in a normal voice it was as if he was in my room. Now I personally believe you should be able to do what you want in your room as long as it's reasonable and not intentionally disturbing others so although it was a long night I just dealt with it. After the difficult night of sleeping I checked out and was greeted with the compulsory, "How was your stay?" to which I responded by describing the night I just had. During my maybe fifteen second response I could see the defensive posture put up by the operations manager who was the person checking me out of my room. He almost cut me off by saying, "You know I can't refund your night" which obviously surprised me as I wasn't asking for anything or expecting anything except maybe an acknowledgement. He continued by saying what he could do is refund the equivalent of 10% of the amount I had paid in points. Just for a reference point it takes about fifteen room nights to earn a free night at this property so it really was in my opinion a token offer. I told him to keep the points and that I wasn't asking for anything. Really in my opinion his offer was insulting. I didn't even really want an apology just maybe a statement admitting this was something I didn't imagine. Anyway that is what really gave me a poor opinion of the place. They obviously know people who are bothered by noise won't like it here and have taken the stance that they don't want to hear about it. Taking my personal feelings out of it that should probably be the only objective thing considered. If that sort of thing bothers you find a more modern hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r287515876-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>287515876</t>
+  </si>
+  <si>
+    <t>07/10/2015</t>
+  </si>
+  <si>
+    <t>Just what you'd expect from a Courtyard</t>
+  </si>
+  <si>
+    <t>We got here late at night last week. There are 6 of us in our family so we reserved a suite with a couple of queens and 2 hideabeds. Check in was almost instantaneous thanks to the very professional late night front desk manager. We drove around to the far side of the building and easily got to our room. Hideabeds weren't made up, but room service came right away and got the beds made up in no time at all. Room was well equipped although there was only one bathroom for all of us. I like the 2 tier wifi in that you can get a adequately fast connection for free and avoid the cost of the higher rate service (although as much as totally free wifi of course!). Mattresses on the queens were a bit dated and I woke up with serious back aches. Check out was a breeze. Overall - just what you expect from a Courtyard.MoreShow less</t>
+  </si>
+  <si>
+    <t>We got here late at night last week. There are 6 of us in our family so we reserved a suite with a couple of queens and 2 hideabeds. Check in was almost instantaneous thanks to the very professional late night front desk manager. We drove around to the far side of the building and easily got to our room. Hideabeds weren't made up, but room service came right away and got the beds made up in no time at all. Room was well equipped although there was only one bathroom for all of us. I like the 2 tier wifi in that you can get a adequately fast connection for free and avoid the cost of the higher rate service (although as much as totally free wifi of course!). Mattresses on the queens were a bit dated and I woke up with serious back aches. Check out was a breeze. Overall - just what you expect from a Courtyard.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r262301978-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>262301978</t>
+  </si>
+  <si>
+    <t>03/28/2015</t>
+  </si>
+  <si>
+    <t>Sweet and convenient</t>
+  </si>
+  <si>
+    <t>I love this hotel. The room is very spacious, and it is conveniently located walking  to restaurants, grocery stores, nice and big bakeries, even Walmart, Shopping mall and the spectacular Hsi Lai Temple is nearby. Everyone I came contact to at this hotel is very friendly. I have to give special thanks to Nicloe , the front desk associate. She went out of her to find a room to satisfy our requirements and as a result we had a beautiful stay there.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r259405188-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>259405188</t>
+  </si>
+  <si>
+    <t>03/14/2015</t>
+  </si>
+  <si>
+    <t>Alright but</t>
+  </si>
+  <si>
+    <t>I stayed here six years ago for the first time and this site has undergone a transformation. First the carpet which is orange and blue and looks like something that would come out of Panda Express. The elevator is located in the far corner of the building as far away from the front door as you can get which means a long trip from the front door to the elevator to get to your room. There is one wash machine and one dryer for over 200 rooms. 
+The front desk staff did not know how the detergent in the wash machine worked as it is hooked up and you have to push a button. They have two carts for moving your luggage from your room to your car and these carts are kept not by the front door but about as far away from it as possible much to your inconvenience.
+Once a person on the front desk when the wash machine ate our money said that he didn't want to fill out the paperwork necessary to give us the money back which was a $1.75 took a dollar out of his pocket and gave it to us and said this would be good enough which means that he was shorted a dollar and we were shorted $.75.
+There is only one person at the front desk who cares about and has a personality to do this job right. She...I stayed here six years ago for the first time and this site has undergone a transformation. First the carpet which is orange and blue and looks like something that would come out of Panda Express. The elevator is located in the far corner of the building as far away from the front door as you can get which means a long trip from the front door to the elevator to get to your room. There is one wash machine and one dryer for over 200 rooms. The front desk staff did not know how the detergent in the wash machine worked as it is hooked up and you have to push a button. They have two carts for moving your luggage from your room to your car and these carts are kept not by the front door but about as far away from it as possible much to your inconvenience.Once a person on the front desk when the wash machine ate our money said that he didn't want to fill out the paperwork necessary to give us the money back which was a $1.75 took a dollar out of his pocket and gave it to us and said this would be good enough which means that he was shorted a dollar and we were shorted $.75.There is only one person at the front desk who cares about and has a personality to do this job right. She is a tall young lady does a great job.This location could learn a great deal from the Santa Rosa area Marriott Courtyard location.Personally, I would fire the manager and most of the front desk staff. MoreShow less</t>
+  </si>
+  <si>
+    <t>Maritza M, General Manager at Courtyard Los Angeles Hacienda Heights/Orange County, responded to this reviewResponded March 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here six years ago for the first time and this site has undergone a transformation. First the carpet which is orange and blue and looks like something that would come out of Panda Express. The elevator is located in the far corner of the building as far away from the front door as you can get which means a long trip from the front door to the elevator to get to your room. There is one wash machine and one dryer for over 200 rooms. 
+The front desk staff did not know how the detergent in the wash machine worked as it is hooked up and you have to push a button. They have two carts for moving your luggage from your room to your car and these carts are kept not by the front door but about as far away from it as possible much to your inconvenience.
+Once a person on the front desk when the wash machine ate our money said that he didn't want to fill out the paperwork necessary to give us the money back which was a $1.75 took a dollar out of his pocket and gave it to us and said this would be good enough which means that he was shorted a dollar and we were shorted $.75.
+There is only one person at the front desk who cares about and has a personality to do this job right. She...I stayed here six years ago for the first time and this site has undergone a transformation. First the carpet which is orange and blue and looks like something that would come out of Panda Express. The elevator is located in the far corner of the building as far away from the front door as you can get which means a long trip from the front door to the elevator to get to your room. There is one wash machine and one dryer for over 200 rooms. The front desk staff did not know how the detergent in the wash machine worked as it is hooked up and you have to push a button. They have two carts for moving your luggage from your room to your car and these carts are kept not by the front door but about as far away from it as possible much to your inconvenience.Once a person on the front desk when the wash machine ate our money said that he didn't want to fill out the paperwork necessary to give us the money back which was a $1.75 took a dollar out of his pocket and gave it to us and said this would be good enough which means that he was shorted a dollar and we were shorted $.75.There is only one person at the front desk who cares about and has a personality to do this job right. She is a tall young lady does a great job.This location could learn a great deal from the Santa Rosa area Marriott Courtyard location.Personally, I would fire the manager and most of the front desk staff. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r259104140-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>259104140</t>
+  </si>
+  <si>
+    <t>03/12/2015</t>
+  </si>
+  <si>
+    <t>nice stay despite being overbooked</t>
+  </si>
+  <si>
+    <t>Despite a room change due to overbooking, our family of 4 still had a nice, comfortable weekend sharing a King bedroom instead of 2 Queen beds.  It was lucky we brought an extra blow up bed and the room had the couch and was large enough to fit the extra bed.  The staff was running short, but still managed pleasant attitudes and assisted our questions.  Our first day's compensated breakfast was tasty and good value, but I imagine is not convenient for the rushed traveler.  (Their breakfast is an order then sit down style, not a buffet spread).  The room on the 2nd floor was surprisingly quiet, the King bed was very comfortable, and we enjoyed the roll-out desk table for playing games.  The sink outside the toilet room was perfect, but the shower room could use a fan to prevent the resulting hot humidity.  We enjoyed the view and location of this hotel and would definitely come back here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Despite a room change due to overbooking, our family of 4 still had a nice, comfortable weekend sharing a King bedroom instead of 2 Queen beds.  It was lucky we brought an extra blow up bed and the room had the couch and was large enough to fit the extra bed.  The staff was running short, but still managed pleasant attitudes and assisted our questions.  Our first day's compensated breakfast was tasty and good value, but I imagine is not convenient for the rushed traveler.  (Their breakfast is an order then sit down style, not a buffet spread).  The room on the 2nd floor was surprisingly quiet, the King bed was very comfortable, and we enjoyed the roll-out desk table for playing games.  The sink outside the toilet room was perfect, but the shower room could use a fan to prevent the resulting hot humidity.  We enjoyed the view and location of this hotel and would definitely come back here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r250113084-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>250113084</t>
+  </si>
+  <si>
+    <t>01/19/2015</t>
+  </si>
+  <si>
+    <t>Average CY with good location in an area without many options</t>
+  </si>
+  <si>
+    <t>As a Marriott elite member,  I almost always stay in this CY when I visit the nearby area. It is located behind a shopping plaza,   quiet at night and easy access to restaurants, shopping and highway. You can grab stuff from nearby Walmart, Target or even Costo if you forget some stuff for your travel. It is also interesting to see police officers are often sitting in the cafe having a coffee or working on their document, so I assume it's very safe.
+I think the hotel was remodeled a few years ago but tarts showing some sign of heavy use. The water in bathroom and sink may have issues depending on rooms. Most recently I stayed in a king room where hot water comes very slowly and previously I stayed in another king room with some minor sinking problem. Room is typical CY and bed is kind of comfy. Refrigerator is available in each room for you convenience. Lobby looks very nice and there is a sitting area in case you have friends visiting during your stay.
+Service is pretty average. As a gold elite member, I was never given any upgrade option, bottle water or any code for the enhanced wifi. Membership benefits don't exist here. I was also never asked if I need help even I'm with a very little kid. They often missed a few things for the daily room service. The tea bags was not...As a Marriott elite member,  I almost always stay in this CY when I visit the nearby area. It is located behind a shopping plaza,   quiet at night and easy access to restaurants, shopping and highway. You can grab stuff from nearby Walmart, Target or even Costo if you forget some stuff for your travel. It is also interesting to see police officers are often sitting in the cafe having a coffee or working on their document, so I assume it's very safe.I think the hotel was remodeled a few years ago but tarts showing some sign of heavy use. The water in bathroom and sink may have issues depending on rooms. Most recently I stayed in a king room where hot water comes very slowly and previously I stayed in another king room with some minor sinking problem. Room is typical CY and bed is kind of comfy. Refrigerator is available in each room for you convenience. Lobby looks very nice and there is a sitting area in case you have friends visiting during your stay.Service is pretty average. As a gold elite member, I was never given any upgrade option, bottle water or any code for the enhanced wifi. Membership benefits don't exist here. I was also never asked if I need help even I'm with a very little kid. They often missed a few things for the daily room service. The tea bags was not refilled during my latest two-night stay.  I was given two conditioners but no shampoo. They don't give an additional box of face tissue even there are only about 10 pieces left.  The service used to be better but I felt obvious degradation during my last couple of stays.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Maritza M, Front Office Manager at Courtyard Los Angeles Hacienda Heights/Orange County, responded to this reviewResponded January 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2015</t>
+  </si>
+  <si>
+    <t>As a Marriott elite member,  I almost always stay in this CY when I visit the nearby area. It is located behind a shopping plaza,   quiet at night and easy access to restaurants, shopping and highway. You can grab stuff from nearby Walmart, Target or even Costo if you forget some stuff for your travel. It is also interesting to see police officers are often sitting in the cafe having a coffee or working on their document, so I assume it's very safe.
+I think the hotel was remodeled a few years ago but tarts showing some sign of heavy use. The water in bathroom and sink may have issues depending on rooms. Most recently I stayed in a king room where hot water comes very slowly and previously I stayed in another king room with some minor sinking problem. Room is typical CY and bed is kind of comfy. Refrigerator is available in each room for you convenience. Lobby looks very nice and there is a sitting area in case you have friends visiting during your stay.
+Service is pretty average. As a gold elite member, I was never given any upgrade option, bottle water or any code for the enhanced wifi. Membership benefits don't exist here. I was also never asked if I need help even I'm with a very little kid. They often missed a few things for the daily room service. The tea bags was not...As a Marriott elite member,  I almost always stay in this CY when I visit the nearby area. It is located behind a shopping plaza,   quiet at night and easy access to restaurants, shopping and highway. You can grab stuff from nearby Walmart, Target or even Costo if you forget some stuff for your travel. It is also interesting to see police officers are often sitting in the cafe having a coffee or working on their document, so I assume it's very safe.I think the hotel was remodeled a few years ago but tarts showing some sign of heavy use. The water in bathroom and sink may have issues depending on rooms. Most recently I stayed in a king room where hot water comes very slowly and previously I stayed in another king room with some minor sinking problem. Room is typical CY and bed is kind of comfy. Refrigerator is available in each room for you convenience. Lobby looks very nice and there is a sitting area in case you have friends visiting during your stay.Service is pretty average. As a gold elite member, I was never given any upgrade option, bottle water or any code for the enhanced wifi. Membership benefits don't exist here. I was also never asked if I need help even I'm with a very little kid. They often missed a few things for the daily room service. The tea bags was not refilled during my latest two-night stay.  I was given two conditioners but no shampoo. They don't give an additional box of face tissue even there are only about 10 pieces left.  The service used to be better but I felt obvious degradation during my last couple of stays.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r246698957-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>246698957</t>
+  </si>
+  <si>
+    <t>12/31/2014</t>
+  </si>
+  <si>
+    <t>Definitely worth the price:)</t>
+  </si>
+  <si>
+    <t>I've stayed in many hotels but most recently my experience with Marriott has been notable. This one was clean, staff was pleasant and accommodating, and all the amenities were in great working order.from check-in to check-out, we experienced very helpful staff- the check-in process was quick, and the young lady at the front desk was very pleasant even though we checked in very late. The room was modern and appeared to be newer. On our first night, I had requested from housekeeping that they leave additional towels and soaps- the following two days they did the same- leaving a stack of extra towels and soap- I didn't have to keep asking which might sound like a small thing, but it was very appreciated. While they don't have room service (which I expected), they did have a coffee/bistro type bar downstairs that served 'Starbucks' coffee and meals. The food was mediocre (also expected) but I will say they made over-medium eggs perfectly. Overall, I have stayed in hotels where I've paid much more and had many complaints.....in would definitely choose this location again!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>I've stayed in many hotels but most recently my experience with Marriott has been notable. This one was clean, staff was pleasant and accommodating, and all the amenities were in great working order.from check-in to check-out, we experienced very helpful staff- the check-in process was quick, and the young lady at the front desk was very pleasant even though we checked in very late. The room was modern and appeared to be newer. On our first night, I had requested from housekeeping that they leave additional towels and soaps- the following two days they did the same- leaving a stack of extra towels and soap- I didn't have to keep asking which might sound like a small thing, but it was very appreciated. While they don't have room service (which I expected), they did have a coffee/bistro type bar downstairs that served 'Starbucks' coffee and meals. The food was mediocre (also expected) but I will say they made over-medium eggs perfectly. Overall, I have stayed in hotels where I've paid much more and had many complaints.....in would definitely choose this location again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r246586127-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>246586127</t>
+  </si>
+  <si>
+    <t>12/30/2014</t>
+  </si>
+  <si>
+    <t>Things needed to improve!</t>
+  </si>
+  <si>
+    <t>We are Marriott Reward members and have stayed here every time we travel to LA - we would love to come back so here are our suggestions.1. Noise - constant huge noise from adjoining door - soundproofing should be reinforced.2. Room AC thermostat is digital and wireless now - when the battery is out/low, it causes AC to be on and off all night - very annoying.3. No/not enough hot/warm water for showers - it's chill in Hacienda Heights during winter time - a). shower water was not warm/hot enough; b). even when we finally got some hot water, it's only last for about 5~10 min on and off during 9-11pm. When we made complaint to the front desk, the answer was "the water heater works fine and we will send someone over".Staffs are friendly But apparently people who work at Courtyard Marriott Hacienda Heights have never stayed in any room at the hotel, so no one ever notice or understand the problems that we have and/or things that should get improved.MoreShow less</t>
+  </si>
+  <si>
+    <t>We are Marriott Reward members and have stayed here every time we travel to LA - we would love to come back so here are our suggestions.1. Noise - constant huge noise from adjoining door - soundproofing should be reinforced.2. Room AC thermostat is digital and wireless now - when the battery is out/low, it causes AC to be on and off all night - very annoying.3. No/not enough hot/warm water for showers - it's chill in Hacienda Heights during winter time - a). shower water was not warm/hot enough; b). even when we finally got some hot water, it's only last for about 5~10 min on and off during 9-11pm. When we made complaint to the front desk, the answer was "the water heater works fine and we will send someone over".Staffs are friendly But apparently people who work at Courtyard Marriott Hacienda Heights have never stayed in any room at the hotel, so no one ever notice or understand the problems that we have and/or things that should get improved.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r239342410-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>239342410</t>
+  </si>
+  <si>
+    <t>11/11/2014</t>
+  </si>
+  <si>
+    <t>Excellent CY property in this area, just behind busy shopping mall &amp; up small hill</t>
+  </si>
+  <si>
+    <t>Extended family road trip took us to plan for a weeklong stay in this area and this is usually too far away from Pasadena/Alhambra area that we prefer, but our usual Arcadia hotels were sold out and/or overpriced, so we're plesantly surprised for our 4 nights stay here - will definitely stay on our short list for Marriott properties when returning to the area in the future.
+It's an easy, extra 25 minutes+ drive off I-60 Freeway &amp; then under 4 minutes up the road for a quick right turn onto the hotel; which is adjacent to a senior living complex next door - be careful with elders doing daily short walks slower while driving thru the big &amp; free parking lot, which has a great view of the hills north of LA.  On weekends, it's about 30 minutes into Orange County &amp; bypassed most of downtown LAX traffic and not a bad hotel location - took us only about 30 minutes to get to Santa Monica Pier. Getting around on weekday is another story for anyone familiar with the area's 8 lanes HOV or car-pool/Fast-Pass highways.  
+Our check-in was a little slower (by 5 minutes) around 8 PM as we arrived later than planned after a busy day coming from Grand Canyon, AZ with the cheerful &amp; friendly front desk person on duty as she was busy helping 3 other customers ahead of us while answering phone calls.  Our...Extended family road trip took us to plan for a weeklong stay in this area and this is usually too far away from Pasadena/Alhambra area that we prefer, but our usual Arcadia hotels were sold out and/or overpriced, so we're plesantly surprised for our 4 nights stay here - will definitely stay on our short list for Marriott properties when returning to the area in the future.It's an easy, extra 25 minutes+ drive off I-60 Freeway &amp; then under 4 minutes up the road for a quick right turn onto the hotel; which is adjacent to a senior living complex next door - be careful with elders doing daily short walks slower while driving thru the big &amp; free parking lot, which has a great view of the hills north of LA.  On weekends, it's about 30 minutes into Orange County &amp; bypassed most of downtown LAX traffic and not a bad hotel location - took us only about 30 minutes to get to Santa Monica Pier. Getting around on weekday is another story for anyone familiar with the area's 8 lanes HOV or car-pool/Fast-Pass highways.  Our check-in was a little slower (by 5 minutes) around 8 PM as we arrived later than planned after a busy day coming from Grand Canyon, AZ with the cheerful &amp; friendly front desk person on duty as she was busy helping 3 other customers ahead of us while answering phone calls.  Our requests &amp; preference were note in the computer reservation system and honored - she assigned us a 2/F quiet room with 2 Queen beds facing the pool/courtyard area, and showed us where to park to be closer to the rear elevator with our luggage. (The parking area is well lighted at night &amp; entry into the building required a valid guest keycard)Our non-smoking 2 Queen-beds room at 350 SF is as expected, clean/bright &amp; comfortable, fresh smelling and has a coffee-maker and small refrigerator (4 CF sized) along with ice bucket - 40" plus HDTV with good choice of cable channels.  The desk lamp is very bright with 2 bulbs and 2 outlets for plugging in charger &amp; laptop power adapter - and very productive while surfing the internet. Free wireless internet are available in our guest room with a log-on for 1MB/256k speed adequate for emai, surfing &amp; social media. Faster 5MB speed is available for business travelers looking for better data flow @ $10/daily. The open access business center next to the lobby check-in has 4 PC for guest access and a free, quick print terminal for airline boarding passes &amp; check-in, no issues with printing our BP,  Daily newspaper (USA Today) are free for pickup in the lobby and there are comfortable sofa &amp; lounger to sit, socialize &amp; relax - the Market Place has variety of items at reasonable prices for sale.Our Queen-sized mattress seemed more than full-sized framed and a notch too far for our preference but otherwise great, fresh &amp; clean sheets - we returned after a late dinner &amp; realized that there're only 3 sets of towels for 4 adults in our group; and, left a note for housekeeping the next morning as we left for a busy Saturday around town - surely, got plentiful of extra towels for everyone. For solo business traveler or a couple, the wash area is fine but a bit too limited with just a towel rack next to the wash sink and just one inside the bath area next to the toilet - so I suggest CY property management consider putting up an extra rack or hooks along with wall, as it is also useful while changing clothes, etc. as we do not like putting items or dropping them on the floor.  The mini-closet is about 30" wide with the hairdryer and iron/board for guest's use, but space would be tight for an extended stay for 3+ guests, especially if rollers/spinners are also placed inside. Less than 1/8 mile on the main cross street - Colima Road are numerous shopping centers and strip malls, and we discovered many Chinese &amp; Asian restaurants, cafe and bakery for dining at all prices, many are often late for nighttime snacks - in addition to the ususal eateries. So while it's at least 20+ minutes to Valley Blvd. in the San Gabriel area where we have relatives &amp; friends, this CY has earned a spot on our return to stay list - we enjoyed our stay &amp; definitely see coming back.A small note - we're mistaken charged against our room for 2 bottled water claimed by someone else at the Market Place &amp; shown on our Express Checkout itemized invoice and it was promptly adjusted by the front desk staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Extended family road trip took us to plan for a weeklong stay in this area and this is usually too far away from Pasadena/Alhambra area that we prefer, but our usual Arcadia hotels were sold out and/or overpriced, so we're plesantly surprised for our 4 nights stay here - will definitely stay on our short list for Marriott properties when returning to the area in the future.
+It's an easy, extra 25 minutes+ drive off I-60 Freeway &amp; then under 4 minutes up the road for a quick right turn onto the hotel; which is adjacent to a senior living complex next door - be careful with elders doing daily short walks slower while driving thru the big &amp; free parking lot, which has a great view of the hills north of LA.  On weekends, it's about 30 minutes into Orange County &amp; bypassed most of downtown LAX traffic and not a bad hotel location - took us only about 30 minutes to get to Santa Monica Pier. Getting around on weekday is another story for anyone familiar with the area's 8 lanes HOV or car-pool/Fast-Pass highways.  
+Our check-in was a little slower (by 5 minutes) around 8 PM as we arrived later than planned after a busy day coming from Grand Canyon, AZ with the cheerful &amp; friendly front desk person on duty as she was busy helping 3 other customers ahead of us while answering phone calls.  Our...Extended family road trip took us to plan for a weeklong stay in this area and this is usually too far away from Pasadena/Alhambra area that we prefer, but our usual Arcadia hotels were sold out and/or overpriced, so we're plesantly surprised for our 4 nights stay here - will definitely stay on our short list for Marriott properties when returning to the area in the future.It's an easy, extra 25 minutes+ drive off I-60 Freeway &amp; then under 4 minutes up the road for a quick right turn onto the hotel; which is adjacent to a senior living complex next door - be careful with elders doing daily short walks slower while driving thru the big &amp; free parking lot, which has a great view of the hills north of LA.  On weekends, it's about 30 minutes into Orange County &amp; bypassed most of downtown LAX traffic and not a bad hotel location - took us only about 30 minutes to get to Santa Monica Pier. Getting around on weekday is another story for anyone familiar with the area's 8 lanes HOV or car-pool/Fast-Pass highways.  Our check-in was a little slower (by 5 minutes) around 8 PM as we arrived later than planned after a busy day coming from Grand Canyon, AZ with the cheerful &amp; friendly front desk person on duty as she was busy helping 3 other customers ahead of us while answering phone calls.  Our requests &amp; preference were note in the computer reservation system and honored - she assigned us a 2/F quiet room with 2 Queen beds facing the pool/courtyard area, and showed us where to park to be closer to the rear elevator with our luggage. (The parking area is well lighted at night &amp; entry into the building required a valid guest keycard)Our non-smoking 2 Queen-beds room at 350 SF is as expected, clean/bright &amp; comfortable, fresh smelling and has a coffee-maker and small refrigerator (4 CF sized) along with ice bucket - 40" plus HDTV with good choice of cable channels.  The desk lamp is very bright with 2 bulbs and 2 outlets for plugging in charger &amp; laptop power adapter - and very productive while surfing the internet. Free wireless internet are available in our guest room with a log-on for 1MB/256k speed adequate for emai, surfing &amp; social media. Faster 5MB speed is available for business travelers looking for better data flow @ $10/daily. The open access business center next to the lobby check-in has 4 PC for guest access and a free, quick print terminal for airline boarding passes &amp; check-in, no issues with printing our BP,  Daily newspaper (USA Today) are free for pickup in the lobby and there are comfortable sofa &amp; lounger to sit, socialize &amp; relax - the Market Place has variety of items at reasonable prices for sale.Our Queen-sized mattress seemed more than full-sized framed and a notch too far for our preference but otherwise great, fresh &amp; clean sheets - we returned after a late dinner &amp; realized that there're only 3 sets of towels for 4 adults in our group; and, left a note for housekeeping the next morning as we left for a busy Saturday around town - surely, got plentiful of extra towels for everyone. For solo business traveler or a couple, the wash area is fine but a bit too limited with just a towel rack next to the wash sink and just one inside the bath area next to the toilet - so I suggest CY property management consider putting up an extra rack or hooks along with wall, as it is also useful while changing clothes, etc. as we do not like putting items or dropping them on the floor.  The mini-closet is about 30" wide with the hairdryer and iron/board for guest's use, but space would be tight for an extended stay for 3+ guests, especially if rollers/spinners are also placed inside. Less than 1/8 mile on the main cross street - Colima Road are numerous shopping centers and strip malls, and we discovered many Chinese &amp; Asian restaurants, cafe and bakery for dining at all prices, many are often late for nighttime snacks - in addition to the ususal eateries. So while it's at least 20+ minutes to Valley Blvd. in the San Gabriel area where we have relatives &amp; friends, this CY has earned a spot on our return to stay list - we enjoyed our stay &amp; definitely see coming back.A small note - we're mistaken charged against our room for 2 bottled water claimed by someone else at the Market Place &amp; shown on our Express Checkout itemized invoice and it was promptly adjusted by the front desk staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r233675654-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>233675654</t>
+  </si>
+  <si>
+    <t>10/10/2014</t>
+  </si>
+  <si>
+    <t>Stay here every visit! Friendly staff and clean, comfortable rooms</t>
+  </si>
+  <si>
+    <t>I love this hotel! My sister lives in the area and I stay here every time I come visit.1. Super friendly staff- All the maintenance people and housekeepers greet you when you walk down the hall. The front desk are very friendly and helpful.2. Clean and comfortable rooms- The rooms are always very clean. The beds and pillows are super comfortable. Housekeeping does a great job.3. Amenities- great little cafe in lobby with good food, drinks and Starbucks coffee. A nice poolAnd hot tub that my nephews love to swim in. Exercise room, laundry room. Fridge in room.4. Close to mall and restaurants. You can walk to some restaurants and the mall. A must try is 85 degree bakery for breakfast! They have fantastic pastries and sea salt coffee! Everything you could want in a hotel. I love staying here. They make my stay comfortable and relaxing! MoreShow less</t>
+  </si>
+  <si>
+    <t>I love this hotel! My sister lives in the area and I stay here every time I come visit.1. Super friendly staff- All the maintenance people and housekeepers greet you when you walk down the hall. The front desk are very friendly and helpful.2. Clean and comfortable rooms- The rooms are always very clean. The beds and pillows are super comfortable. Housekeeping does a great job.3. Amenities- great little cafe in lobby with good food, drinks and Starbucks coffee. A nice poolAnd hot tub that my nephews love to swim in. Exercise room, laundry room. Fridge in room.4. Close to mall and restaurants. You can walk to some restaurants and the mall. A must try is 85 degree bakery for breakfast! They have fantastic pastries and sea salt coffee! Everything you could want in a hotel. I love staying here. They make my stay comfortable and relaxing! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r232885867-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>232885867</t>
+  </si>
+  <si>
+    <t>10/06/2014</t>
+  </si>
+  <si>
+    <t>Oasis in a weird area</t>
+  </si>
+  <si>
+    <t>I don't often review domestic hotels as I usually travel internationally, but I had to go to Los Angeles county for business. I have stayed here before and I am always satisfied with this hotel. Yes, it's a Courtyard Marriott, and hence isn't particularly hip, but it is always spotless, very easy to get to (off the 60 freeway), quiet, and the staff is extremely nice and helpful. The rooms are big, clean, and have a nice desk for working, a little coffee maker, and a tiny refrigerator for your personal (free) use. Cable TV in room. The free WIFI is not blazing, but it is sufficient. Bathrooms are small but very nice and clean. The lobby and bar/restaurant area is big and welcoming. The food is average/OK. There is free parking, and the grounds are nice, and there is a decent sized pool. Except for business, there is nothing in this area to see culturally! Don't come here on vacation!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>I don't often review domestic hotels as I usually travel internationally, but I had to go to Los Angeles county for business. I have stayed here before and I am always satisfied with this hotel. Yes, it's a Courtyard Marriott, and hence isn't particularly hip, but it is always spotless, very easy to get to (off the 60 freeway), quiet, and the staff is extremely nice and helpful. The rooms are big, clean, and have a nice desk for working, a little coffee maker, and a tiny refrigerator for your personal (free) use. Cable TV in room. The free WIFI is not blazing, but it is sufficient. Bathrooms are small but very nice and clean. The lobby and bar/restaurant area is big and welcoming. The food is average/OK. There is free parking, and the grounds are nice, and there is a decent sized pool. Except for business, there is nothing in this area to see culturally! Don't come here on vacation!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r229241917-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>229241917</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>Not too shabby! :)</t>
+  </si>
+  <si>
+    <t>The staff was incredibly friendly and accommodating. The lobby/grounds/room were very clean. The one very small complaint I would have is that our room smelled a bit musty. Other than that we would definitely stay here again!</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r221813041-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>221813041</t>
+  </si>
+  <si>
+    <t>08/14/2014</t>
+  </si>
+  <si>
+    <t>Decent hotel, not a great area</t>
+  </si>
+  <si>
+    <t>This hotel has all of the same amenities that most Courtyard Marriott's have - WiFi throughout the hotel, a café that serves Starbucks in the lobby, and clean, decent rooms. I stayed here as I had a meeting in Diamond Bar the following day and this was the nearest Marriott. The location seems lacking, there's not a whole lot of restaurants around the area, and nothing seems walkable. The hotel itself was extremely crowded with tour groups and I noticed a lot of guests left the doors to their rooms open and proceeded to talk loudly down the hallway which wasn't all that pleasant. Also, if you're Marriott Gold Elite don't expect an upgrade as I was told the hotel was completely sold out and usually is. I wouldn't recommend it for anyone on vacation, but the Courtyards are excellent hotels for people who travel a lot for business.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Maritza M, General Manager at Courtyard Los Angeles Hacienda Heights/Orange County, responded to this reviewResponded August 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2014</t>
+  </si>
+  <si>
+    <t>This hotel has all of the same amenities that most Courtyard Marriott's have - WiFi throughout the hotel, a café that serves Starbucks in the lobby, and clean, decent rooms. I stayed here as I had a meeting in Diamond Bar the following day and this was the nearest Marriott. The location seems lacking, there's not a whole lot of restaurants around the area, and nothing seems walkable. The hotel itself was extremely crowded with tour groups and I noticed a lot of guests left the doors to their rooms open and proceeded to talk loudly down the hallway which wasn't all that pleasant. Also, if you're Marriott Gold Elite don't expect an upgrade as I was told the hotel was completely sold out and usually is. I wouldn't recommend it for anyone on vacation, but the Courtyards are excellent hotels for people who travel a lot for business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r221575573-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>221575573</t>
+  </si>
+  <si>
+    <t>08/13/2014</t>
+  </si>
+  <si>
+    <t>Family vacation</t>
+  </si>
+  <si>
+    <t>The Courtyard Marriott in Hacienda Heights Ca. Is a super place to stay if in the area. Excellent staff, rooms, pool, location, on site breakfast, Starbucks and dinner items all in one place. Will book all stays here when in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Courtyard Marriott in Hacienda Heights Ca. Is a super place to stay if in the area. Excellent staff, rooms, pool, location, on site breakfast, Starbucks and dinner items all in one place. Will book all stays here when in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r213100918-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>213100918</t>
+  </si>
+  <si>
+    <t>07/01/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Typical Courtyard property with nice lobby and rooms.  Front desk service was very enthusiastic and friendly.  There was nothing special about the rooms but they were spacious, clean and modern, again typical Courtyard.  There are a number of eating places within walking distance, as mentioned in previous posts.  The neighborhood, while not exactly residential, is not industrial either and it was not busy.  Importantly for me, the hotel is near the highway but the rooms do not overlook any major roads, so there was absolutely no traffic noise from my room.  I would definitely return if I need to spend the night in the area again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r210538593-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>210538593</t>
+  </si>
+  <si>
+    <t>06/16/2014</t>
+  </si>
+  <si>
+    <t>Very nice hotel for the cheap price. Nice garden, fresh air and free breakfast. A bit far from the west side but a very good deal if you have a car. I would expect everyone staying at this hotel with a carThere are two plazas with restaurants, shops and supermarkets very close to the hotel</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r207379714-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>207379714</t>
+  </si>
+  <si>
+    <t>05/27/2014</t>
+  </si>
+  <si>
+    <t>Top Notch Courtyard Marriott</t>
+  </si>
+  <si>
+    <t>Being a Marriott Silver Elite member, I make it a point to pretty much only stay at Marriott's when I need a hotel. The Courtyard hotels are the perfect option for my family of 5. This particular Courtyard was no exception. Great check in customer service! Our room on the 1st floor was easily accessible to parking and the lobby. My family liked The Bistro in the lobby area where you can order quality food and it has a Starbucks. Although we weren't on property that much due to my son's soccer tournament, we were able to walk to the shopping center about 100 yards down the street that had a Daiso (Japanese version of the dollar store) and a 38C Bakery (yummy tea/coffee drinks and bakery items!). Our room (2 Queen beds) was spacious and super comfortable. We had requested a crib during the reservation process and it was in our room waiting for us all set up and with baby shampoo/lotion thrown in too. If we ever have another tournament in the area, I would not hesitate to stay here again. Great experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Being a Marriott Silver Elite member, I make it a point to pretty much only stay at Marriott's when I need a hotel. The Courtyard hotels are the perfect option for my family of 5. This particular Courtyard was no exception. Great check in customer service! Our room on the 1st floor was easily accessible to parking and the lobby. My family liked The Bistro in the lobby area where you can order quality food and it has a Starbucks. Although we weren't on property that much due to my son's soccer tournament, we were able to walk to the shopping center about 100 yards down the street that had a Daiso (Japanese version of the dollar store) and a 38C Bakery (yummy tea/coffee drinks and bakery items!). Our room (2 Queen beds) was spacious and super comfortable. We had requested a crib during the reservation process and it was in our room waiting for us all set up and with baby shampoo/lotion thrown in too. If we ever have another tournament in the area, I would not hesitate to stay here again. Great experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r200147774-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>200147774</t>
+  </si>
+  <si>
+    <t>04/06/2014</t>
+  </si>
+  <si>
+    <t>Nice for business and pleasure</t>
+  </si>
+  <si>
+    <t>I enjoyed staying in this hotel.  The staff is nice, the hotel room is quiet, clean and well kept, and the bed is very comfortable.  It's located close to some really tasty Asian restaurants.  Would definitely stay here again if I'm in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Maritza M, General Manager at Courtyard Los Angeles Hacienda Heights/Orange County, responded to this reviewResponded April 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2014</t>
+  </si>
+  <si>
+    <t>I enjoyed staying in this hotel.  The staff is nice, the hotel room is quiet, clean and well kept, and the bed is very comfortable.  It's located close to some really tasty Asian restaurants.  Would definitely stay here again if I'm in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r199828262-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>199828262</t>
+  </si>
+  <si>
+    <t>04/03/2014</t>
+  </si>
+  <si>
+    <t>Beautiful View</t>
+  </si>
+  <si>
+    <t>This hotel is located up on a hill with a beautiful view of the mountains.  The location seems very safe, and is very close to a large park.  There are many Chinese and Japanese restaurants nearby.The hotel is clean and modern.  The beds are very comfortable, and there's a nice desk for working.  The fitness center room is small, but the equipment looked new.  There's a beautiful pool outside in a courtyard.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>This hotel is located up on a hill with a beautiful view of the mountains.  The location seems very safe, and is very close to a large park.  There are many Chinese and Japanese restaurants nearby.The hotel is clean and modern.  The beds are very comfortable, and there's a nice desk for working.  The fitness center room is small, but the equipment looked new.  There's a beautiful pool outside in a courtyard.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r197158976-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>197158976</t>
+  </si>
+  <si>
+    <t>03/12/2014</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>I loved staying here. The place is nicely appointed, clean, quiet and safe. I would stay here again.I loved staying here. The place is nicely appointed, clean, quiet and safe. I would stay here again. niceMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Maritza M, General Manager at Courtyard Los Angeles Hacienda Heights/Orange County, responded to this reviewResponded March 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2014</t>
+  </si>
+  <si>
+    <t>I loved staying here. The place is nicely appointed, clean, quiet and safe. I would stay here again.I loved staying here. The place is nicely appointed, clean, quiet and safe. I would stay here again. niceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r186949304-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>186949304</t>
+  </si>
+  <si>
+    <t>12/06/2013</t>
+  </si>
+  <si>
+    <t>very good hotel, convenient, close to everything!</t>
+  </si>
+  <si>
+    <t>I love this hotel, been staying here more than 5 times for work, it is conveniently located on Azusa Ave., with 2 minutes walking to the most famous bakery - 85'C Cafe (great place for breakfast, with all kinds of fresh breads) and lots of restaurants, stores; about 10-15 minutes walk to Macy's, 24 fitness, Marshals, Starbucks Coffee and many other stores. there are lots of Great Chinese Restaurants around.they also have a outdoor swimming pool, and a business center with about 4 PCs where you can print your flight ticket receipt and search for driving directions.if you are here in LA for sightseeing, it is a little far from Hollywood and Disney land, i would say, about 45 minutes to 1 hour without traffic maybe ,,,,MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>I love this hotel, been staying here more than 5 times for work, it is conveniently located on Azusa Ave., with 2 minutes walking to the most famous bakery - 85'C Cafe (great place for breakfast, with all kinds of fresh breads) and lots of restaurants, stores; about 10-15 minutes walk to Macy's, 24 fitness, Marshals, Starbucks Coffee and many other stores. there are lots of Great Chinese Restaurants around.they also have a outdoor swimming pool, and a business center with about 4 PCs where you can print your flight ticket receipt and search for driving directions.if you are here in LA for sightseeing, it is a little far from Hollywood and Disney land, i would say, about 45 minutes to 1 hour without traffic maybe ,,,,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r185350718-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>185350718</t>
+  </si>
+  <si>
+    <t>11/20/2013</t>
+  </si>
+  <si>
+    <t>Great beds.</t>
+  </si>
+  <si>
+    <t>The beds are the best, the pillows are not very good. No free breakfast, exercise room is limited. The TV in the lobby is great, to bad the ones in the room are not as good(selection of channels). The food at the bar is $$$ compared to what can be had just a short drive away. The room was kept very clean while we were there.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r179714632-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>179714632</t>
+  </si>
+  <si>
+    <t>10/04/2013</t>
+  </si>
+  <si>
+    <t>Clean hotel and not a bad location</t>
+  </si>
+  <si>
+    <t>This place was pretty nice.  It looked new.  There was plenty of parking, and there were several restaurants in an adjacent shopping center, not to mention on "the strip" less than 1/4 mile away.The room and bathroom were very clean, and I was impressed that some of the lights had motion sensors.  I had a king bed in the room, and it was quite spacious.  Very nice desk/dresser and tv.  The bed was clean and very comfortable, with a number of pillows.I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r171563676-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>171563676</t>
+  </si>
+  <si>
+    <t>08/09/2013</t>
+  </si>
+  <si>
+    <t>Good location for airport</t>
+  </si>
+  <si>
+    <t>I was part of a tour group and stayed here twice, once on arrival to LA and once on leaving. This hotel is good for a stopover in LA. The shuttle bus from the airport was easy to locate and very handy quick journey.The rooms needed some updating but they were clean. The resturant was good and well priced. The service was nice and fast.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r170098808-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>170098808</t>
+  </si>
+  <si>
+    <t>07/31/2013</t>
+  </si>
+  <si>
+    <t>Good hotel for a one night stop</t>
+  </si>
+  <si>
+    <t>This hotel is a very good hotel for a short stop in LA.The shuttle bus from the airport was easy to locate and very handy quick journey.I was part of a tour group and there was a little confusion in finding my bedroom. However, this was quickly sorted out and I headed to my twin room.The room was a little small and needed updating but it was clean.I used the small outdoor pool which was nice to relax by. There is plenty of spaces to sit outdoors.The resturant was good and well priced. The service was nice and fast.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r158399788-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>158399788</t>
+  </si>
+  <si>
+    <t>04/21/2013</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>This hotel has a great front desk and restaurant staff very helpful and friendly. It was just redecorated abd a note said I was the first to stay in the room since it was redecorated. The room was large and the housekeeper did a great job but I wish I had asked for a balcony room. The only con they were very stingy with their shampoo only a tiny tiny bottle and a tiny conditioner and there was no coffee in the lobby(they should take a lesson from the Hilton with free breakfast and the Hampton with a bag breakfast to go. You had to go into the restaurant to buy coffee however it was Starbucks. I did eat breakfast there a few mornings but they have a Marie Callender's 5 minutes away for a better breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel has a great front desk and restaurant staff very helpful and friendly. It was just redecorated abd a note said I was the first to stay in the room since it was redecorated. The room was large and the housekeeper did a great job but I wish I had asked for a balcony room. The only con they were very stingy with their shampoo only a tiny tiny bottle and a tiny conditioner and there was no coffee in the lobby(they should take a lesson from the Hilton with free breakfast and the Hampton with a bag breakfast to go. You had to go into the restaurant to buy coffee however it was Starbucks. I did eat breakfast there a few mornings but they have a Marie Callender's 5 minutes away for a better breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r152824703-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>152824703</t>
+  </si>
+  <si>
+    <t>02/22/2013</t>
+  </si>
+  <si>
+    <t>Nice Lobby, but missing a benefit I used to count on</t>
+  </si>
+  <si>
+    <t>I completed a 4 night stay at this hotel 2 weeks ago. In my room I found a notice that free coffee and tea typically provided in the lobby area had just been eliminated. The notice included the promise that they would deliver all the coffee you wanted for your in-room coffee pot and that's nice. But I've never been comfortable using the in-room pot and the powdered creamer can't match the liquid creamers usually provided in the lobby.  Plus, no tea option. Personally, I suspect this is an effort to increase sales of the high profit Starbucks sold at the lobby bistro, but I don't care for Starbucks coffee, too bitter for my taste. I like this hotel overall, clean, comfortable and friendly staff.  But if I can't get a good cup of coffee, I'm probably going back to the hotel in which we have a corporate agreement.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>I completed a 4 night stay at this hotel 2 weeks ago. In my room I found a notice that free coffee and tea typically provided in the lobby area had just been eliminated. The notice included the promise that they would deliver all the coffee you wanted for your in-room coffee pot and that's nice. But I've never been comfortable using the in-room pot and the powdered creamer can't match the liquid creamers usually provided in the lobby.  Plus, no tea option. Personally, I suspect this is an effort to increase sales of the high profit Starbucks sold at the lobby bistro, but I don't care for Starbucks coffee, too bitter for my taste. I like this hotel overall, clean, comfortable and friendly staff.  But if I can't get a good cup of coffee, I'm probably going back to the hotel in which we have a corporate agreement.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r142847133-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>142847133</t>
+  </si>
+  <si>
+    <t>10/15/2012</t>
+  </si>
+  <si>
+    <t>Decent Business Stayover Delivering The Basics</t>
+  </si>
+  <si>
+    <t>The hotel is located near Buena Park California where I have a business meeting.  The hotel is on a main road that is surrounded by adventure themed restaurants, amusement complexes, and shopping malls.  The general area is a bit "aged" and the local mall stores are at the lower end of the spectrum indicating that this is not an upscale neighborhood.  For example, the mall had numerous "gold buying" shops and kiosks.  The anchor stores were Walmart and Ross. The hotel staff was friendly, and the rooms were spacious and clean.  This hotel setup is one that you drive around the building to get better access to your room after you check in.  No bell service was offered. Internet was free and average speed, I would have liked it a little faster.  Lobby has small store for drinks and sundries.  I slept well and area was quiet. The hotel has a small gym and a Jacuzzi.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>The hotel is located near Buena Park California where I have a business meeting.  The hotel is on a main road that is surrounded by adventure themed restaurants, amusement complexes, and shopping malls.  The general area is a bit "aged" and the local mall stores are at the lower end of the spectrum indicating that this is not an upscale neighborhood.  For example, the mall had numerous "gold buying" shops and kiosks.  The anchor stores were Walmart and Ross. The hotel staff was friendly, and the rooms were spacious and clean.  This hotel setup is one that you drive around the building to get better access to your room after you check in.  No bell service was offered. Internet was free and average speed, I would have liked it a little faster.  Lobby has small store for drinks and sundries.  I slept well and area was quiet. The hotel has a small gym and a Jacuzzi.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r141790499-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>141790499</t>
+  </si>
+  <si>
+    <t>10/01/2012</t>
+  </si>
+  <si>
+    <t>Newer lobby, ok rooms.</t>
+  </si>
+  <si>
+    <t>The lobby was remodeled since the last time I was here a couple of years ago, and features the new Courtyard style entry and Bistro eatery.  The lobby is warm and inviting.  The rooms are average and a bit dated, but are comfortable.  An improvement would be better quality bath towels.  The TV was situated aside of the bed, which made watching TV a bit awkward.  The workout room was small.  There are plenty of restaurants within walking distance down the hill from the hotel.  There is also a city park nearby.  I have stayed here multiple times and find it a good choice in the area.  The staff is generally attentive and friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>The lobby was remodeled since the last time I was here a couple of years ago, and features the new Courtyard style entry and Bistro eatery.  The lobby is warm and inviting.  The rooms are average and a bit dated, but are comfortable.  An improvement would be better quality bath towels.  The TV was situated aside of the bed, which made watching TV a bit awkward.  The workout room was small.  There are plenty of restaurants within walking distance down the hill from the hotel.  There is also a city park nearby.  I have stayed here multiple times and find it a good choice in the area.  The staff is generally attentive and friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r132614230-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>132614230</t>
+  </si>
+  <si>
+    <t>06/23/2012</t>
+  </si>
+  <si>
+    <t>quite oasis in a busy neighborhood</t>
+  </si>
+  <si>
+    <t>Timing: We had a two night stay here (Friday, Saturday).  
+Location: The hotel is nicely situated on a hill overlooking Hacienda Heights.  The immediate surrounding is very quite, but you are only 1 block away from all the great Chinese restaurants that this area has to offer.  I image most people staying here are to visit friends or family and not for 'tourist' reasons.
+Service: The staff was very friendly and check-in took only a few moments.  Every time I walked by the lobby, I was greeted.  I never had to call regarding any issues, so I can't comment specifically.
+Rooms: We had a single king room facing the pool, which was fine, but you could hear the kiddos playing in the pool area.  The bed was very comfortable.  The rooms were quiet either from lack of neighbors or thick walls, but I was appreciative either way.  A large LCD TV with many digital TV channel also came with the room.  There was also a small fridge hidden in the dresser.
+Amenities: There was a gym with a few treadmills (with TVs) and some free weights.  Nothing fancy, but enough to burn a few calories.  A jacuzzi and pool were also on site, but I never used it.  I also never used the lobby cafe/food bar, so I can't comment on that.  Internet was free and plenty fast for email and video skyping.
+Most other mid-tier hotels use horrible shampoo/conditioners...Timing: We had a two night stay here (Friday, Saturday).  Location: The hotel is nicely situated on a hill overlooking Hacienda Heights.  The immediate surrounding is very quite, but you are only 1 block away from all the great Chinese restaurants that this area has to offer.  I image most people staying here are to visit friends or family and not for 'tourist' reasons.Service: The staff was very friendly and check-in took only a few moments.  Every time I walked by the lobby, I was greeted.  I never had to call regarding any issues, so I can't comment specifically.Rooms: We had a single king room facing the pool, which was fine, but you could hear the kiddos playing in the pool area.  The bed was very comfortable.  The rooms were quiet either from lack of neighbors or thick walls, but I was appreciative either way.  A large LCD TV with many digital TV channel also came with the room.  There was also a small fridge hidden in the dresser.Amenities: There was a gym with a few treadmills (with TVs) and some free weights.  Nothing fancy, but enough to burn a few calories.  A jacuzzi and pool were also on site, but I never used it.  I also never used the lobby cafe/food bar, so I can't comment on that.  Internet was free and plenty fast for email and video skyping.Most other mid-tier hotels use horrible shampoo/conditioners (are you listening to me Holiday Inn), so the Paul Mitchell shampoo and conditioner was a nice touch.Parking: free and plentiful.Bottom line:  I booked a pretty good deal on the hotel stay and that made the difference.  There aren't that many hotels to choose from in this area, but I'm glad we stayed at this one.  It's convenient, quite, and hassle free.  I will likely stay again, assuming I can get a good price.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Timing: We had a two night stay here (Friday, Saturday).  
+Location: The hotel is nicely situated on a hill overlooking Hacienda Heights.  The immediate surrounding is very quite, but you are only 1 block away from all the great Chinese restaurants that this area has to offer.  I image most people staying here are to visit friends or family and not for 'tourist' reasons.
+Service: The staff was very friendly and check-in took only a few moments.  Every time I walked by the lobby, I was greeted.  I never had to call regarding any issues, so I can't comment specifically.
+Rooms: We had a single king room facing the pool, which was fine, but you could hear the kiddos playing in the pool area.  The bed was very comfortable.  The rooms were quiet either from lack of neighbors or thick walls, but I was appreciative either way.  A large LCD TV with many digital TV channel also came with the room.  There was also a small fridge hidden in the dresser.
+Amenities: There was a gym with a few treadmills (with TVs) and some free weights.  Nothing fancy, but enough to burn a few calories.  A jacuzzi and pool were also on site, but I never used it.  I also never used the lobby cafe/food bar, so I can't comment on that.  Internet was free and plenty fast for email and video skyping.
+Most other mid-tier hotels use horrible shampoo/conditioners...Timing: We had a two night stay here (Friday, Saturday).  Location: The hotel is nicely situated on a hill overlooking Hacienda Heights.  The immediate surrounding is very quite, but you are only 1 block away from all the great Chinese restaurants that this area has to offer.  I image most people staying here are to visit friends or family and not for 'tourist' reasons.Service: The staff was very friendly and check-in took only a few moments.  Every time I walked by the lobby, I was greeted.  I never had to call regarding any issues, so I can't comment specifically.Rooms: We had a single king room facing the pool, which was fine, but you could hear the kiddos playing in the pool area.  The bed was very comfortable.  The rooms were quiet either from lack of neighbors or thick walls, but I was appreciative either way.  A large LCD TV with many digital TV channel also came with the room.  There was also a small fridge hidden in the dresser.Amenities: There was a gym with a few treadmills (with TVs) and some free weights.  Nothing fancy, but enough to burn a few calories.  A jacuzzi and pool were also on site, but I never used it.  I also never used the lobby cafe/food bar, so I can't comment on that.  Internet was free and plenty fast for email and video skyping.Most other mid-tier hotels use horrible shampoo/conditioners (are you listening to me Holiday Inn), so the Paul Mitchell shampoo and conditioner was a nice touch.Parking: free and plentiful.Bottom line:  I booked a pretty good deal on the hotel stay and that made the difference.  There aren't that many hotels to choose from in this area, but I'm glad we stayed at this one.  It's convenient, quite, and hassle free.  I will likely stay again, assuming I can get a good price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r132568731-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>132568731</t>
+  </si>
+  <si>
+    <t>06/22/2012</t>
+  </si>
+  <si>
+    <t>I've stayed in this hotel 46 nights so far this year on business and</t>
+  </si>
+  <si>
+    <t>I would recommend it to others.  It's convenient to everything.  There's a Starbucks in the lobby (which I love) and the Bistro actually has very tasty food.  It's a little pricey, as would be expected, but worth it for the convenience.  The Bistro staff are all super nice and do a very good job.  There was one hotel desk staff employee that was not helpful, twice, but everyone else was very good.  Housekeeping staff are also very nice &amp; helpful.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r129706547-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>129706547</t>
+  </si>
+  <si>
+    <t>05/10/2012</t>
+  </si>
+  <si>
+    <t>Small issues killed a great stay</t>
+  </si>
+  <si>
+    <t>Rverything was good except 2 small issues. Attendant was unnaproachable and had a bit of attitude all staff seemed out of it really. Also, why does a room need to be checked before checkout? My cc info was on file, i paid with cc and still had to wait for a room check to checkout. A waste of time. To be treated fairly childish.MoreShow less</t>
+  </si>
+  <si>
+    <t>kbennet, General Manager at Courtyard Los Angeles Hacienda Heights/Orange County, responded to this reviewResponded May 15, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2012</t>
+  </si>
+  <si>
+    <t>Rverything was good except 2 small issues. Attendant was unnaproachable and had a bit of attitude all staff seemed out of it really. Also, why does a room need to be checked before checkout? My cc info was on file, i paid with cc and still had to wait for a room check to checkout. A waste of time. To be treated fairly childish.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r124371757-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>124371757</t>
+  </si>
+  <si>
+    <t>02/09/2012</t>
+  </si>
+  <si>
+    <t>Pass on this place</t>
+  </si>
+  <si>
+    <t>I don't care for this place at all.The staff has an attitude - Wearing  their little uniforms they act like they think they arebetter than everyone else.The lobby leaves me cold.  It isn't warm or welcoming at all.There is some kind of weird fake grass growing on a table type thing.Strange.  This hotel does not know what they want to be.  I'd suggest thatinstead of trying to be modern they concentrate instead on making visitorsfeel comfortable and at home.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r121015138-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>121015138</t>
+  </si>
+  <si>
+    <t>11/25/2011</t>
+  </si>
+  <si>
+    <t>New lobby but worn rooms</t>
+  </si>
+  <si>
+    <t>The new lobby looks wonderful with nice dining space, but the rooms are still worn with acceptable cleanness. Poor sound proof between rooms, I can easily hear the conversations from next door neighbors. If you have heavy luggage, don't forget to ask for a room in the first floor, because there is no elevator in this hotel. Staffs are friendly. There are several restaurants and shops behind the hotel, within 3 minutes walking distance.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r120547159-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>120547159</t>
+  </si>
+  <si>
+    <t>11/13/2011</t>
+  </si>
+  <si>
+    <t>Remodeled lobby but not rooms...</t>
+  </si>
+  <si>
+    <t>The new lobby area is very nice with a nice dining area and several computers for use.  However, the rooms were not remodeled.  Other than a nice TV, the rooms are not even close to the level of the lobby.  My desk chair was a cheap metal chair as found in a meeting room.  Bed was OK.  The room was simply disappointing as compared to the rest of the hotel.  Friendly employees though.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r115536423-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>115536423</t>
+  </si>
+  <si>
+    <t>07/19/2011</t>
+  </si>
+  <si>
+    <t>Wow! it is like extreme makeover Hotel edition!!</t>
+  </si>
+  <si>
+    <t>I had to stayed there before, and it was good. I was pleasantly surprised when I walked through the sliding door. The entire lobby, restaurant, business center was renovated. I must add it was like walking into a trendy cafe/lounge yet it was cozy. The front desk guy recognized me from the last time I stayed there over 6 mo. previous and welcomed me back "Home". Very classy place. Can't beat it for the price.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r111893395-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>111893395</t>
+  </si>
+  <si>
+    <t>06/06/2011</t>
+  </si>
+  <si>
+    <t>Decent hotel</t>
+  </si>
+  <si>
+    <t>Decent hotel for the price, not very good customer service.  Clean rooms.  Had to call the front desk/ housekeeping twice to get extra tissue papers.  Beds were not that comfortable, the sheets felt old.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r108894809-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>108894809</t>
+  </si>
+  <si>
+    <t>05/19/2011</t>
+  </si>
+  <si>
+    <t>Comfortable Stay and worth the money</t>
+  </si>
+  <si>
+    <t>We stayed for two nights to attend a training seminar. The girl that checked us in was courteous and professional but did not offer too much information. I had to keep asking questions to get answers. For guest service, I did not observe anything that would deserve top ratings but it was not poor service either. The girl that checked us out was a little friendlier.The property was clean and maintained well. The parking lot is a bit dark but I did not see anyone unusual or characters that may cause concern. Most parking spaces are within views of the bedroom window. Exterior doors to the building are secured and are only access with hotel key cards.We stayed in a double queen. The bedroom was spacious and clean. The bed was super comfortable. Everything works like it supposed to so we don't really have any complaints. We both agreed it was a good stay and it was really comfortable. I would most likely stay here again if I am in the area.In addition, the continental breakfast included hot waffles.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed for two nights to attend a training seminar. The girl that checked us in was courteous and professional but did not offer too much information. I had to keep asking questions to get answers. For guest service, I did not observe anything that would deserve top ratings but it was not poor service either. The girl that checked us out was a little friendlier.The property was clean and maintained well. The parking lot is a bit dark but I did not see anyone unusual or characters that may cause concern. Most parking spaces are within views of the bedroom window. Exterior doors to the building are secured and are only access with hotel key cards.We stayed in a double queen. The bedroom was spacious and clean. The bed was super comfortable. Everything works like it supposed to so we don't really have any complaints. We both agreed it was a good stay and it was really comfortable. I would most likely stay here again if I am in the area.In addition, the continental breakfast included hot waffles.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r64342057-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>64342057</t>
+  </si>
+  <si>
+    <t>05/16/2010</t>
+  </si>
+  <si>
+    <t>Great Hotel &amp; Friendly Staff</t>
+  </si>
+  <si>
+    <t>This was my second visit to this hotel. All of the staff are very friendly and helpful (front desk). I really liked the location of this hotel. There are many places around the hotel to go shopping and have meals. Rooms are normal as per Marriott standards. I plan on coming back to this hotel in the future.</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r63046681-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>63046681</t>
+  </si>
+  <si>
+    <t>05/02/2010</t>
+  </si>
+  <si>
+    <t>Great service, convenient location  and CLEAN</t>
+  </si>
+  <si>
+    <t>I've stayed in this hotel numerous times since my daughter started attending nearby Whittier College.  It is a much better alternative to the Radisson Hotel in Whittier, which is, by all accounts, a bad deal.  This hotel is clean, with well stocked rooms. The front desk personnel are more than helpful and go out of their way to make your stay a nice one.  Though the breakfast isn't free, it is decent.  The hotel is located on a hill above a strip mall, and is very quiet.  It takes about five minutes to get anywhere from here, including over the hill to Whittier, Biola, or other colleges in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>I've stayed in this hotel numerous times since my daughter started attending nearby Whittier College.  It is a much better alternative to the Radisson Hotel in Whittier, which is, by all accounts, a bad deal.  This hotel is clean, with well stocked rooms. The front desk personnel are more than helpful and go out of their way to make your stay a nice one.  Though the breakfast isn't free, it is decent.  The hotel is located on a hill above a strip mall, and is very quiet.  It takes about five minutes to get anywhere from here, including over the hill to Whittier, Biola, or other colleges in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r36235428-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>36235428</t>
+  </si>
+  <si>
+    <t>07/30/2009</t>
+  </si>
+  <si>
+    <t>Nice quiet area but lack discipline in controlling unruly guests.</t>
+  </si>
+  <si>
+    <t>The area is quiet even when it is surrounded by wonderful selection of shopping stores and good restaurants to choose from.  The lobby was clean and quiet with a separate TV viewing  area.  Our room was also clean with fresh towels and bed linens, and the staff were friendly and corteous.  The exercise room was not big but comfortable, complete with fresh towels and complimentary head phones.  
+We arrived early afternoon and were able to walk around the hotel peacefully and that lasted about a day.  A group of adults with their children checked in and instantly took over the building.  The children ran around and flocked the gym whithout any supervision.  The pool area were taken over by jumping on whoever in the pool and by what appeared to be smoking drank dads with their beer, loud music, and very loud voices.   When they came back from playing baseball (apparent by their baseball uniforms), the party started and it lasted 'til midnight.  The staff did not seem to go around the hotel to check the facility,  We had to call the front desk at 11:30pm to get some help in lowering the noise from the party out in the courtyard to get some sleep the night before we check out, .  We're not sure if this is the norm in the summer at this hotel when some people who don't have a clue on how to behave at hotels...The area is quiet even when it is surrounded by wonderful selection of shopping stores and good restaurants to choose from.  The lobby was clean and quiet with a separate TV viewing  area.  Our room was also clean with fresh towels and bed linens, and the staff were friendly and corteous.  The exercise room was not big but comfortable, complete with fresh towels and complimentary head phones.  We arrived early afternoon and were able to walk around the hotel peacefully and that lasted about a day.  A group of adults with their children checked in and instantly took over the building.  The children ran around and flocked the gym whithout any supervision.  The pool area were taken over by jumping on whoever in the pool and by what appeared to be smoking drank dads with their beer, loud music, and very loud voices.   When they came back from playing baseball (apparent by their baseball uniforms), the party started and it lasted 'til midnight.  The staff did not seem to go around the hotel to check the facility,  We had to call the front desk at 11:30pm to get some help in lowering the noise from the party out in the courtyard to get some sleep the night before we check out, .  We're not sure if this is the norm in the summer at this hotel when some people who don't have a clue on how to behave at hotels stay with their kids.  Overall, this hotel is a nice hotel with friendly staff.  We recommend this hotel to those who are not pool goers and to business people that get out early and leave early.  This was our first stay at this hotel and pray that these people were not the usual guests.  Our family will try this hotel again next year but we will request a room away from the courtyard on the second  floorMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>The area is quiet even when it is surrounded by wonderful selection of shopping stores and good restaurants to choose from.  The lobby was clean and quiet with a separate TV viewing  area.  Our room was also clean with fresh towels and bed linens, and the staff were friendly and corteous.  The exercise room was not big but comfortable, complete with fresh towels and complimentary head phones.  
+We arrived early afternoon and were able to walk around the hotel peacefully and that lasted about a day.  A group of adults with their children checked in and instantly took over the building.  The children ran around and flocked the gym whithout any supervision.  The pool area were taken over by jumping on whoever in the pool and by what appeared to be smoking drank dads with their beer, loud music, and very loud voices.   When they came back from playing baseball (apparent by their baseball uniforms), the party started and it lasted 'til midnight.  The staff did not seem to go around the hotel to check the facility,  We had to call the front desk at 11:30pm to get some help in lowering the noise from the party out in the courtyard to get some sleep the night before we check out, .  We're not sure if this is the norm in the summer at this hotel when some people who don't have a clue on how to behave at hotels...The area is quiet even when it is surrounded by wonderful selection of shopping stores and good restaurants to choose from.  The lobby was clean and quiet with a separate TV viewing  area.  Our room was also clean with fresh towels and bed linens, and the staff were friendly and corteous.  The exercise room was not big but comfortable, complete with fresh towels and complimentary head phones.  We arrived early afternoon and were able to walk around the hotel peacefully and that lasted about a day.  A group of adults with their children checked in and instantly took over the building.  The children ran around and flocked the gym whithout any supervision.  The pool area were taken over by jumping on whoever in the pool and by what appeared to be smoking drank dads with their beer, loud music, and very loud voices.   When they came back from playing baseball (apparent by their baseball uniforms), the party started and it lasted 'til midnight.  The staff did not seem to go around the hotel to check the facility,  We had to call the front desk at 11:30pm to get some help in lowering the noise from the party out in the courtyard to get some sleep the night before we check out, .  We're not sure if this is the norm in the summer at this hotel when some people who don't have a clue on how to behave at hotels stay with their kids.  Overall, this hotel is a nice hotel with friendly staff.  We recommend this hotel to those who are not pool goers and to business people that get out early and leave early.  This was our first stay at this hotel and pray that these people were not the usual guests.  Our family will try this hotel again next year but we will request a room away from the courtyard on the second  floorMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r8255707-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>8255707</t>
+  </si>
+  <si>
+    <t>07/29/2007</t>
+  </si>
+  <si>
+    <t>Scary!!</t>
+  </si>
+  <si>
+    <t>We arrived around 9pm and check-in went smoothly. However, when we tried to park and get into the hotel through a side entrance, there were about 20 young adults milling about and cars driving fast around the parking lot. It felt like a riot was about to happen, and it was scary. We went to another entrance and called the front desk. We asked them to send security before things got out of hand.  In the meantime, we got the kids in the room, along with our luggage. Some of the young adults wanted us to let them into the hotel by banging on glass doors to get our attention, but we ignored them. Maybe someone was just having a party at the hotel, but it all felt wrong. Not being familiar with the neighborhoods, I really wasn't sure if we were not in the best part of town.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2007</t>
+  </si>
+  <si>
+    <t>We arrived around 9pm and check-in went smoothly. However, when we tried to park and get into the hotel through a side entrance, there were about 20 young adults milling about and cars driving fast around the parking lot. It felt like a riot was about to happen, and it was scary. We went to another entrance and called the front desk. We asked them to send security before things got out of hand.  In the meantime, we got the kids in the room, along with our luggage. Some of the young adults wanted us to let them into the hotel by banging on glass doors to get our attention, but we ignored them. Maybe someone was just having a party at the hotel, but it all felt wrong. Not being familiar with the neighborhoods, I really wasn't sure if we were not in the best part of town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r7154237-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>7154237</t>
+  </si>
+  <si>
+    <t>03/12/2007</t>
+  </si>
+  <si>
+    <t>No complaints whatsoever</t>
+  </si>
+  <si>
+    <t>I stayed here the weekend of 3/10/2007.  Couldn't have been more pleased.  The staff was very pleasant and friendly and eager to help.   The room was impeccably clean and well-maintained.   The hotel's location is also very good in that it's relatively quiet, but only 1/4 mile away for shopping/restaurants.    The white noise from the heating/cooling unit was also exactly what the doctor ordered for an uninterrupted night's sleep.  I'd stay there again in a heartbeat and was very happy I didn't "cheap out" for one of the less expensive motels in the area.</t>
+  </si>
+  <si>
+    <t>March 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r5728782-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>5728782</t>
+  </si>
+  <si>
+    <t>08/29/2006</t>
+  </si>
+  <si>
+    <t>Perfectly peaceful comfort</t>
+  </si>
+  <si>
+    <t>We needed a place to stay at the last minute and found this hotel using our Street Atlas software. The hotel is very new and we got a large room with 2 queen beds and had the best night's sleep. The mattresses were perfectly comfortable and we were relieved to have made a good choice. The furnishings are all new and we appreciated the little details of the room, including the bathroom amenities which were awesome. Overall, this Courtyard was very clean and contemporary. The front desk staff were friendly and helpful. The hotel is close to lots of eateries and mini shopping areas. We would love to stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2006</t>
+  </si>
+  <si>
+    <t>We needed a place to stay at the last minute and found this hotel using our Street Atlas software. The hotel is very new and we got a large room with 2 queen beds and had the best night's sleep. The mattresses were perfectly comfortable and we were relieved to have made a good choice. The furnishings are all new and we appreciated the little details of the room, including the bathroom amenities which were awesome. Overall, this Courtyard was very clean and contemporary. The front desk staff were friendly and helpful. The hotel is close to lots of eateries and mini shopping areas. We would love to stay here again!More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2089,4365 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>95</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>96</v>
+      </c>
+      <c r="X8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>105</v>
+      </c>
+      <c r="X9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>114</v>
+      </c>
+      <c r="X10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>129</v>
+      </c>
+      <c r="O12" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>130</v>
+      </c>
+      <c r="X12" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>122</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>153</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" t="s">
+        <v>159</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>160</v>
+      </c>
+      <c r="O17" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L18" t="s">
+        <v>165</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>160</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>166</v>
+      </c>
+      <c r="X18" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J19" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" t="s">
+        <v>172</v>
+      </c>
+      <c r="L19" t="s">
+        <v>173</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>176</v>
+      </c>
+      <c r="J20" t="s">
+        <v>177</v>
+      </c>
+      <c r="K20" t="s">
+        <v>178</v>
+      </c>
+      <c r="L20" t="s">
+        <v>179</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>180</v>
+      </c>
+      <c r="O20" t="s">
+        <v>95</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>181</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>182</v>
+      </c>
+      <c r="J21" t="s">
+        <v>183</v>
+      </c>
+      <c r="K21" t="s">
+        <v>184</v>
+      </c>
+      <c r="L21" t="s">
+        <v>185</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>186</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>188</v>
+      </c>
+      <c r="J22" t="s">
+        <v>189</v>
+      </c>
+      <c r="K22" t="s">
+        <v>190</v>
+      </c>
+      <c r="L22" t="s">
+        <v>191</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>192</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>193</v>
+      </c>
+      <c r="X22" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>197</v>
+      </c>
+      <c r="J23" t="s">
+        <v>198</v>
+      </c>
+      <c r="K23" t="s">
+        <v>199</v>
+      </c>
+      <c r="L23" t="s">
+        <v>200</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>201</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>203</v>
+      </c>
+      <c r="J24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K24" t="s">
+        <v>205</v>
+      </c>
+      <c r="L24" t="s">
+        <v>206</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>201</v>
+      </c>
+      <c r="O24" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>209</v>
+      </c>
+      <c r="J25" t="s">
+        <v>210</v>
+      </c>
+      <c r="K25" t="s">
+        <v>211</v>
+      </c>
+      <c r="L25" t="s">
+        <v>212</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>213</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>214</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>215</v>
+      </c>
+      <c r="J26" t="s">
+        <v>216</v>
+      </c>
+      <c r="K26" t="s">
+        <v>217</v>
+      </c>
+      <c r="L26" t="s">
+        <v>218</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>219</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>220</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>221</v>
+      </c>
+      <c r="J27" t="s">
+        <v>222</v>
+      </c>
+      <c r="K27" t="s">
+        <v>223</v>
+      </c>
+      <c r="L27" t="s">
+        <v>224</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>219</v>
+      </c>
+      <c r="O27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>225</v>
+      </c>
+      <c r="X27" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>228</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>229</v>
+      </c>
+      <c r="J28" t="s">
+        <v>230</v>
+      </c>
+      <c r="K28" t="s">
+        <v>231</v>
+      </c>
+      <c r="L28" t="s">
+        <v>232</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>219</v>
+      </c>
+      <c r="O28" t="s">
+        <v>71</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>234</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>235</v>
+      </c>
+      <c r="J29" t="s">
+        <v>236</v>
+      </c>
+      <c r="K29" t="s">
+        <v>237</v>
+      </c>
+      <c r="L29" t="s">
+        <v>238</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>239</v>
+      </c>
+      <c r="O29" t="s">
+        <v>71</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>240</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>241</v>
+      </c>
+      <c r="J30" t="s">
+        <v>242</v>
+      </c>
+      <c r="K30" t="s">
+        <v>243</v>
+      </c>
+      <c r="L30" t="s">
+        <v>244</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>239</v>
+      </c>
+      <c r="O30" t="s">
+        <v>95</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>245</v>
+      </c>
+      <c r="X30" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>248</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>249</v>
+      </c>
+      <c r="J31" t="s">
+        <v>250</v>
+      </c>
+      <c r="K31" t="s">
+        <v>251</v>
+      </c>
+      <c r="L31" t="s">
+        <v>252</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>239</v>
+      </c>
+      <c r="O31" t="s">
+        <v>71</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>254</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>255</v>
+      </c>
+      <c r="J32" t="s">
+        <v>256</v>
+      </c>
+      <c r="K32" t="s">
+        <v>257</v>
+      </c>
+      <c r="L32" t="s">
+        <v>258</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>259</v>
+      </c>
+      <c r="O32" t="s">
+        <v>71</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>260</v>
+      </c>
+      <c r="X32" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>263</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>264</v>
+      </c>
+      <c r="J33" t="s">
+        <v>265</v>
+      </c>
+      <c r="K33" t="s">
+        <v>266</v>
+      </c>
+      <c r="L33" t="s">
+        <v>267</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>268</v>
+      </c>
+      <c r="O33" t="s">
+        <v>71</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>270</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>271</v>
+      </c>
+      <c r="J34" t="s">
+        <v>272</v>
+      </c>
+      <c r="K34" t="s">
+        <v>273</v>
+      </c>
+      <c r="L34" t="s">
+        <v>274</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>268</v>
+      </c>
+      <c r="O34" t="s">
+        <v>95</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>276</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>277</v>
+      </c>
+      <c r="J35" t="s">
+        <v>278</v>
+      </c>
+      <c r="K35" t="s">
+        <v>279</v>
+      </c>
+      <c r="L35" t="s">
+        <v>280</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>281</v>
+      </c>
+      <c r="O35" t="s">
+        <v>71</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>283</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>284</v>
+      </c>
+      <c r="J36" t="s">
+        <v>285</v>
+      </c>
+      <c r="K36" t="s">
+        <v>286</v>
+      </c>
+      <c r="L36" t="s">
+        <v>287</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>289</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>290</v>
+      </c>
+      <c r="J37" t="s">
+        <v>291</v>
+      </c>
+      <c r="K37" t="s">
+        <v>292</v>
+      </c>
+      <c r="L37" t="s">
+        <v>293</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>294</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>296</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>297</v>
+      </c>
+      <c r="J38" t="s">
+        <v>298</v>
+      </c>
+      <c r="K38" t="s">
+        <v>299</v>
+      </c>
+      <c r="L38" t="s">
+        <v>300</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>301</v>
+      </c>
+      <c r="O38" t="s">
+        <v>71</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>303</v>
+      </c>
+      <c r="J39" t="s">
+        <v>304</v>
+      </c>
+      <c r="K39" t="s">
+        <v>305</v>
+      </c>
+      <c r="L39" t="s">
+        <v>306</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>307</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>308</v>
+      </c>
+      <c r="X39" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>311</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>312</v>
+      </c>
+      <c r="J40" t="s">
+        <v>313</v>
+      </c>
+      <c r="K40" t="s">
+        <v>314</v>
+      </c>
+      <c r="L40" t="s">
+        <v>315</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>307</v>
+      </c>
+      <c r="O40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>308</v>
+      </c>
+      <c r="X40" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>317</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>318</v>
+      </c>
+      <c r="J41" t="s">
+        <v>319</v>
+      </c>
+      <c r="K41" t="s">
+        <v>320</v>
+      </c>
+      <c r="L41" t="s">
+        <v>321</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>307</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>322</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>323</v>
+      </c>
+      <c r="J42" t="s">
+        <v>324</v>
+      </c>
+      <c r="K42" t="s">
+        <v>320</v>
+      </c>
+      <c r="L42" t="s">
+        <v>325</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>326</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>327</v>
+      </c>
+      <c r="J43" t="s">
+        <v>328</v>
+      </c>
+      <c r="K43" t="s">
+        <v>329</v>
+      </c>
+      <c r="L43" t="s">
+        <v>330</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>331</v>
+      </c>
+      <c r="O43" t="s">
+        <v>71</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>333</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>334</v>
+      </c>
+      <c r="J44" t="s">
+        <v>335</v>
+      </c>
+      <c r="K44" t="s">
+        <v>336</v>
+      </c>
+      <c r="L44" t="s">
+        <v>337</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>338</v>
+      </c>
+      <c r="O44" t="s">
+        <v>95</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>339</v>
+      </c>
+      <c r="X44" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>342</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>343</v>
+      </c>
+      <c r="J45" t="s">
+        <v>344</v>
+      </c>
+      <c r="K45" t="s">
+        <v>345</v>
+      </c>
+      <c r="L45" t="s">
+        <v>346</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>347</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>339</v>
+      </c>
+      <c r="X45" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>349</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>350</v>
+      </c>
+      <c r="J46" t="s">
+        <v>351</v>
+      </c>
+      <c r="K46" t="s">
+        <v>352</v>
+      </c>
+      <c r="L46" t="s">
+        <v>353</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>354</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>355</v>
+      </c>
+      <c r="X46" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>358</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>359</v>
+      </c>
+      <c r="J47" t="s">
+        <v>360</v>
+      </c>
+      <c r="K47" t="s">
+        <v>361</v>
+      </c>
+      <c r="L47" t="s">
+        <v>362</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>363</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>365</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>366</v>
+      </c>
+      <c r="J48" t="s">
+        <v>367</v>
+      </c>
+      <c r="K48" t="s">
+        <v>368</v>
+      </c>
+      <c r="L48" t="s">
+        <v>369</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>370</v>
+      </c>
+      <c r="O48" t="s">
+        <v>95</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>371</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>372</v>
+      </c>
+      <c r="J49" t="s">
+        <v>373</v>
+      </c>
+      <c r="K49" t="s">
+        <v>374</v>
+      </c>
+      <c r="L49" t="s">
+        <v>375</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>376</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>377</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>378</v>
+      </c>
+      <c r="J50" t="s">
+        <v>379</v>
+      </c>
+      <c r="K50" t="s">
+        <v>380</v>
+      </c>
+      <c r="L50" t="s">
+        <v>381</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>382</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>383</v>
+      </c>
+      <c r="J51" t="s">
+        <v>384</v>
+      </c>
+      <c r="K51" t="s">
+        <v>385</v>
+      </c>
+      <c r="L51" t="s">
+        <v>386</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>387</v>
+      </c>
+      <c r="O51" t="s">
+        <v>388</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>389</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>390</v>
+      </c>
+      <c r="J52" t="s">
+        <v>391</v>
+      </c>
+      <c r="K52" t="s">
+        <v>392</v>
+      </c>
+      <c r="L52" t="s">
+        <v>393</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>387</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>395</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>396</v>
+      </c>
+      <c r="J53" t="s">
+        <v>397</v>
+      </c>
+      <c r="K53" t="s">
+        <v>398</v>
+      </c>
+      <c r="L53" t="s">
+        <v>399</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>400</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>402</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>403</v>
+      </c>
+      <c r="J54" t="s">
+        <v>404</v>
+      </c>
+      <c r="K54" t="s">
+        <v>405</v>
+      </c>
+      <c r="L54" t="s">
+        <v>406</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>407</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>409</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>410</v>
+      </c>
+      <c r="J55" t="s">
+        <v>411</v>
+      </c>
+      <c r="K55" t="s">
+        <v>412</v>
+      </c>
+      <c r="L55" t="s">
+        <v>413</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>414</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>416</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>417</v>
+      </c>
+      <c r="J56" t="s">
+        <v>418</v>
+      </c>
+      <c r="K56" t="s">
+        <v>419</v>
+      </c>
+      <c r="L56" t="s">
+        <v>420</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>421</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>423</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>424</v>
+      </c>
+      <c r="J57" t="s">
+        <v>425</v>
+      </c>
+      <c r="K57" t="s">
+        <v>426</v>
+      </c>
+      <c r="L57" t="s">
+        <v>427</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>428</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>429</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>430</v>
+      </c>
+      <c r="J58" t="s">
+        <v>431</v>
+      </c>
+      <c r="K58" t="s">
+        <v>432</v>
+      </c>
+      <c r="L58" t="s">
+        <v>433</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>434</v>
+      </c>
+      <c r="X58" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>437</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>438</v>
+      </c>
+      <c r="J59" t="s">
+        <v>439</v>
+      </c>
+      <c r="K59" t="s">
+        <v>440</v>
+      </c>
+      <c r="L59" t="s">
+        <v>441</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>442</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>443</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>444</v>
+      </c>
+      <c r="J60" t="s">
+        <v>445</v>
+      </c>
+      <c r="K60" t="s">
+        <v>446</v>
+      </c>
+      <c r="L60" t="s">
+        <v>447</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>448</v>
+      </c>
+      <c r="O60" t="s">
+        <v>59</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>449</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>450</v>
+      </c>
+      <c r="J61" t="s">
+        <v>451</v>
+      </c>
+      <c r="K61" t="s">
+        <v>452</v>
+      </c>
+      <c r="L61" t="s">
+        <v>453</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>454</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>455</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>456</v>
+      </c>
+      <c r="J62" t="s">
+        <v>457</v>
+      </c>
+      <c r="K62" t="s">
+        <v>458</v>
+      </c>
+      <c r="L62" t="s">
+        <v>459</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>460</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>461</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>462</v>
+      </c>
+      <c r="J63" t="s">
+        <v>463</v>
+      </c>
+      <c r="K63" t="s">
+        <v>464</v>
+      </c>
+      <c r="L63" t="s">
+        <v>465</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>466</v>
+      </c>
+      <c r="O63" t="s">
+        <v>71</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>2</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>467</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>468</v>
+      </c>
+      <c r="J64" t="s">
+        <v>469</v>
+      </c>
+      <c r="K64" t="s">
+        <v>470</v>
+      </c>
+      <c r="L64" t="s">
+        <v>471</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>466</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>473</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>474</v>
+      </c>
+      <c r="J65" t="s">
+        <v>475</v>
+      </c>
+      <c r="K65" t="s">
+        <v>476</v>
+      </c>
+      <c r="L65" t="s">
+        <v>477</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>478</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>479</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>480</v>
+      </c>
+      <c r="J66" t="s">
+        <v>481</v>
+      </c>
+      <c r="K66" t="s">
+        <v>482</v>
+      </c>
+      <c r="L66" t="s">
+        <v>483</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>484</v>
+      </c>
+      <c r="O66" t="s">
+        <v>71</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>486</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>487</v>
+      </c>
+      <c r="J67" t="s">
+        <v>488</v>
+      </c>
+      <c r="K67" t="s">
+        <v>489</v>
+      </c>
+      <c r="L67" t="s">
+        <v>490</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>491</v>
+      </c>
+      <c r="O67" t="s">
+        <v>71</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>493</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>494</v>
+      </c>
+      <c r="J68" t="s">
+        <v>495</v>
+      </c>
+      <c r="K68" t="s">
+        <v>496</v>
+      </c>
+      <c r="L68" t="s">
+        <v>497</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>498</v>
+      </c>
+      <c r="O68" t="s">
+        <v>71</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>500</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>501</v>
+      </c>
+      <c r="J69" t="s">
+        <v>502</v>
+      </c>
+      <c r="K69" t="s">
+        <v>503</v>
+      </c>
+      <c r="L69" t="s">
+        <v>504</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>505</v>
+      </c>
+      <c r="O69" t="s">
+        <v>71</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>506</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>507</v>
+      </c>
+      <c r="J70" t="s">
+        <v>508</v>
+      </c>
+      <c r="K70" t="s">
+        <v>509</v>
+      </c>
+      <c r="L70" t="s">
+        <v>510</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>511</v>
+      </c>
+      <c r="O70" t="s">
+        <v>388</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>512</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_156.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_156.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="579">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Francois V</t>
+  </si>
+  <si>
     <t>06/29/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Bridgetpianos</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r565175323-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Chelsea P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r564723871-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
     <t xml:space="preserve">When I go to LA for work I always stay here. Easy to jump onto highway and shoot into downtown. Beds are comfy and rooms always clean. Have never had any issues. Staff is always wel c oming and the bistro is tasty and quick. Pricey though. </t>
   </si>
   <si>
+    <t>Customer532</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r550013017-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t>I booked 2 rooms for 2 nights at this location. I came around 10 pm to check in and the lady at front desk that she did not have the rooms together. I agreed and went to what we got. To my disappointment, the heater/AC unit never worked all night. The outlets by any lamps did not work and there was a pattern of sound that stayed continuously through the walls. After a restless night with no sleep, in the morning went to the front desk to request a room change for the second night. At first she said nothing was available. After begging due to lack of sleep (me and my children), she gave me a room that was in the corner with a small window. I went back and requested will wait until they have an equivalent room available. For a family of 4, we had a room with 1 king bed. Even requested if she had 2 queen beds. She said she had nothing available. I continued to request and felt was begging over and over. As I was leaving the counter, the lady shook her head and rolled her eyes. She called back saying engineer will come and check on the problems. I am highly disappointed with the the lack of courstey and customer service a company  like Marriott offers. Very very poor service!More</t>
   </si>
   <si>
+    <t>MeuterMedia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r539717757-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -270,6 +285,9 @@
     <t>1st i have no clue who designed this place without an elevator on the left side of the building rooms 201 ++, with heavy luggage it is a nightmare walk around the whole building! Local population all Asian. local restaurants 75% Asian. Chinese business visitors use this hotel but the breakfast is American style and none of the Asian visitors like it (today a group of 25 Chinese Government officials are staying here), maybe management should try to hire Chinese speaking front desk clerks? overall just an average Courtyard hotel on top of a hill, walk to restaurants and malls. meutermediaMore</t>
   </si>
   <si>
+    <t>skiski833</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r538994700-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -285,6 +303,9 @@
     <t>Stayed for 3 nights. Very close to the shops so you will be looked after if you want dining. 10mins walk to a large shopping centre so there are things to do if you are there for an extended period of stay. Printing service was for free, defn a plus when travelling for business. Rooms were a bit dated, but acceptable.</t>
   </si>
   <si>
+    <t>Darth-Katsu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r496492393-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -315,6 +336,9 @@
     <t>What a great location!  Love that it's so close to shops and a ton of great eatery's, from ramen to chick fil a to Krispy Kreme.  The hotel staff were all friendly and attentive tho we did have minimal interaction with them.  The property is going though a renovation currently so the elevator is down, luckily there's only 3 floors and we got a room in the 1st floor.  Parking is free and that's a huge plus.  The property is very clean and so was our room.  The only thing stopping me from giving it a full excellent rating is that the walls are thin, you are going to hear folks talking as they walk down the hall and you will know when your neighbor is in the shower as the water turns on you'll hear it.More</t>
   </si>
   <si>
+    <t>TrailBiker_MD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r487394431-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -342,6 +366,9 @@
     <t>Hotel was adequate for a one night stay.Its an easy 20 minuter drive from Ontario Airport. Beds were comfortable. I stayed in the 2nd floor and it was quite while I was there. Tons of free parking at the facility which is always a plus. However, the facility felt very dated and felt dusty but the staff was excellent and helpful. So its fine if you just want to crash for a night. It's in a predominantly Asian area with tons of restaurant for Asian cuisine.  Taiwanese, Korean etc were everywhere. Unfortunately I didn't get a chance to try any of these restaurants due to mu short stay.More</t>
   </si>
   <si>
+    <t>John B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r467676007-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -369,6 +396,9 @@
     <t>I have never been to La before and had no clue where to stay.I tried to get a room close to Anaheim, but everything was booked out due to events and busy time of year. The lady on the 800 for Marriott suggested this place. I was not to thrilled at the rates I was given. I am staying here for 10 days. I think it worked to an average of $209 per night for my stay. My company gives me $99 plus taxes. So it was kinda of high. But if you consider it is in LA, and the property is beyond clean, and the staff is amazing. It is a smart choice.The amenities in the area are excellent. Anything that you can think of for food, Walmart, CVS, malls, is very close. There is a Asian retirement center next door.So old Asians walking around everywhere is funny.This area is very heavily populated by Asian's.I had no clue to this. but I love it. Great Sushi, and Chinese food. Amazing.Overall it is expensive, but I think worth it in the long run.No breakfast at $200 a night ? Criminal.More</t>
   </si>
   <si>
+    <t>Eulalia_3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r466504289-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -388,6 +418,9 @@
   </si>
   <si>
     <t>This was a nice hotel --- Pleasant stay.Roger at the desk was very nice.The hotel is located up high on a hill. Great view.The pool seemed nice although I didn't use it.There was a nice exercise room with a rack of free weights.There were lots of stores nearby.Included in my hotel photos is a picture of the fish counter at a store a block from the hotel ... it demonstrates the large Asian population.Very fascinating.The hotel was clean and all of the staff were pleasant.There was plenty of hot water and towels.The water pressure was good.A renovation in the hotel was going on while I was there .... but it was fine.As far at "cons" go:--no microwave in my room (did have a mini fridge)--A/C heat system did not regulate well --slight sweet smell from a cleaner in room (no smell is always best)All in all a nice stay in a nice area.  I would stay here again.: -)More</t>
+  </si>
+  <si>
+    <t>yolanda m</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r461548355-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
@@ -419,6 +452,9 @@
 So the next day I requested to talk to the general manager. I told her about the circumstances in hopes that she would comp that day. She told me that they were working on the roof right above me. Since I was on the very top floor it was like they were in the room. She also advised me that there were papers in the rooms to let clients know. I saw no such paper and since I checked in late and just wanted to go to the room and rest, I really was not looking...My home had a fire, so I needed to go some place and rest the next day. So I choose the Marriott Hotel near by my home. I figured that there would be no problem resting as apposed to a motel 6. The staff was nice and as a gold member upgraded me to a suite. I then settled in with my wife and two daughters so that I could make a meeting the next day. I had made the appointment late in the day so I would be rested. Then at  8:00 am there was pounding of hammers and the sound of saws. It seemed like they were in the room with me. I thought that it would stop shortly but it did not. It went on for the entire day. I could not sleep and had to cancel my very important appointment. So the next day I requested to talk to the general manager. I told her about the circumstances in hopes that she would comp that day. She told me that they were working on the roof right above me. Since I was on the very top floor it was like they were in the room. She also advised me that there were papers in the rooms to let clients know. I saw no such paper and since I checked in late and just wanted to go to the room and rest, I really was not looking or reading anything in the room. The way the clients should have been advised about this construction, at the time of checking in they should have been told that there was construction going on and given the choice to either complete the check in or a room as far away from the noise. Because, like my self a client may just be looking to go and rest. Because of this reason of not giving me that choice I felt that the room should had been comp for my inconvience. She did not agree and felt the notice was enough for me to make my choice. When a person checks in to a hotel like the marriott, they expect a much higher standards then the noisie motel 6 by the freeway. They expect a clean, safe and some what quiet room. I could had went to a motel and paid a lower rate to take a chance of the type of enviorment I was going to be in. If a hotel wants to charge more and advertise as a much better place to stay for the money. Then they must deliver without excuses in doing that. If they do fail, then there must be a demorstation on there behalf that they reconize and will correct the oversite for the next time. They must also show that the client is not the one to have to suffer for there error. I am here still at the hotel for one or two more days and I hope that the management team will show me that they care. I also hope that they will take this as constructive and not negative. I will ad to this after my stay is completed.Respectfully,Marriott Client (Gold member)More</t>
   </si>
   <si>
+    <t>Fish_On_Man</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r458719371-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -434,6 +470,9 @@
     <t>The staff was professional and courteous. The room was nicely decorated. The shower was comfortable, and the rooms were clean.  At over $200 a night for the room however seemed a bit excessive especially with no complimentary breakfast.  Also the walls seemed a little thin.  I was able to hear what sounded like a normal conversation in an adjacent room. Another good note is that the AC/Heater unit in my room didn't rattle which has been a problem for me in the past at other hotels.</t>
   </si>
   <si>
+    <t>charlesf840</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r435086935-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -449,6 +488,9 @@
     <t>For this trip, I tried Courtyard for the first time, and it's a great experience for the comfortable room and professional and friendly staff. The facility, lobby, location are great, very convenient for getting good and close to a park. Also for the first time I forgot some clothes in the hotel, and the front desk kept it very well for my friend's pick up.Will take this in first priority to the future stay in LA.</t>
   </si>
   <si>
+    <t>Paul D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r428251939-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -462,6 +504,9 @@
   </si>
   <si>
     <t>It finally happened. I left my iPad in my room and flew away. I called Jackie at the front desk from Vegas and within minutes the hotel staff found the iPad, called me, and carried out the shipping to my home. The hotel has a very inviting lobby. Rather bistro-like and welcoming. The site is near excellent restaurants and stores. You can also walk the nearby hills and look over greater Los Angeles. Rather beautiful view. The rooms are highest quality, as you would expect. And again thank you Jackie!</t>
+  </si>
+  <si>
+    <t>caliiitrav</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r422248233-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
@@ -491,6 +536,9 @@
 More importantly, what can you eat and do in walking distance? The plaza right next to the hotel has a bakery called 85 Degrees. It's a famous Taiwanese bakery in which you can try their famous breads and their famous sea salt green tea or sea salt coffee. It's a local thing so it's a good place to get your carbs on. In that same plaza is my favorite ramen restaurant in the area called Tamaya - get the pork based soup. There's also a Japanese $1.50 store called Daiso which has a bunch of cute Asian stuff. It's basically the Asian 99-cent store. There is an Asian market called 168. If you are not familiar with Asian markets, I'd recommend walking around inside to get a sense of what they're like. Asian...I love this hotel, mainly because of the customer service from Jackie. She is always so helpful, always smiling, and so sweet!! This is one of the better hotels in the area which serves predominately the Asian population. This area mostly has Taiwanese, Chinese, and Korean foods so if you're from an area that lack authentic Asian food and you don't want to head on out to the super busy Chinatown, you have definitely come to the right place!Rooms: They're clean, comfortable, and spacious. The rooms are modern. What more can you ask for? There's mini fridge to store all my perishable finds so I'm happy! More importantly, what can you eat and do in walking distance? The plaza right next to the hotel has a bakery called 85 Degrees. It's a famous Taiwanese bakery in which you can try their famous breads and their famous sea salt green tea or sea salt coffee. It's a local thing so it's a good place to get your carbs on. In that same plaza is my favorite ramen restaurant in the area called Tamaya - get the pork based soup. There's also a Japanese $1.50 store called Daiso which has a bunch of cute Asian stuff. It's basically the Asian 99-cent store. There is an Asian market called 168. If you are not familiar with Asian markets, I'd recommend walking around inside to get a sense of what they're like. Asian markets are known for their fresh seafood - located at the back. Across the street from the hotel is a huge park - most locals walk around there or go hiking. Parking there is free on the weekdays but why park when you can just cross the street? It does get crowded in the mornings on the weekends as the older Asian crowd is doing their tai chi. There's also the Puente Hills mall that is nearby but it's an older mall and not much going on. I would skip it unless you need to go to Macy's or any other typical mall store.More</t>
   </si>
   <si>
+    <t>tofino721</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r377714028-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -509,6 +557,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Mathew S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r366072061-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -533,6 +584,9 @@
     <t>I booked this through tripadvisor then my plans changed to one day earlier. I never received an email advising me of my upcoming stay. So when I saw a charge for $189 on my bank statement I called the hotel and spoke to the manager about giving me a break as I have stayed there often because its really the only place to stay in Hacienda Heights and I have enjoyed staying there in the past . The manager gave me some inplausible explanation that ethics were involved as if she gave me a break that wouldn't be fair to the other people who they had decided to keep their money. A good example of a Corporate serving ethics. We all know how ethical Corporations are. Any way I never received an email alerting me to my upcoming stay which cost me $189.More</t>
   </si>
   <si>
+    <t>962fan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r365242740-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -551,6 +605,9 @@
     <t>I have stayed in this hotel for over a decade when in Southern California for both business and pleasure. It is centrally located for those needing access to the entire L.A. basin, with plenty of options if one route is especially bad with traffic.  It went through a big renovation a few years ago and it really improved the lobby area. Rooms are basic and clean. On my recent visit, Expedia screwed up the reservation and both Roger and Sergio at the front desk were pleasant and very helpful...and Expedia wasn't doing them any favors. They remained in good humor and worked through the issue for me, and even provided me complimentary coffee from their barista for the inconvenience (that they didn't even cause).  Great restaurants in the area with easy on/off to the 60 freeway. Gas stations and convenience stores within walking distance. Love this place!More</t>
   </si>
   <si>
+    <t>Mochichu08</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r349553815-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -569,6 +626,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>alysons46</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r346125786-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -587,6 +647,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>BrendaB247365</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r331399399-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -614,6 +677,9 @@
     <t>The Courtyard is the Courtyard, but this one has two things worth noting:  the service at this hotel was great - everybody was so nice and cheerful - and the bed was terrific.  Really comfortable and with soft sheets - just what I needed after a long-haul flight. Located in an "Asian" area, you can walk to many places for a variety of Asian foods.More</t>
   </si>
   <si>
+    <t>cindy r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r319971436-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -632,6 +698,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>family_guy_98101</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r317391310-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -650,6 +719,9 @@
     <t>This hotel looks like any other Courtyard on the outside and the room layout is very familiar.  Despite the average appearance, this place has a strong inner beauty starting with the entire staff.  Everyone we encountered, from the front desk staff to housekeeping and many others, was very friendly and went out of their way to make us feel comfortable and at home.  One of the staff literally ran down a hall to open a door for us so we didn't have to use our key card at a parking lot entrance.  Twice.  The room was clean and all of the features worked well.  The shower had very good water pressure.  The shower curtain was clean and hung properly.  The toilet had a strong flush.  The sink drained quickly.  Climate controls were responsive.  We slept well because of comfortable beds, blackout curtains and a quiet location.  I really appreciate all of these comforts of home in a hotel.  This Courtyard is a standout among Courtyards and hotels in general.  I plan to stay here if I am in the area again.More</t>
   </si>
   <si>
+    <t>Ken L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r311121742-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -668,6 +740,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Jski529</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r294472457-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -686,6 +761,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>rchon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r289051352-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -710,6 +788,9 @@
     <t>Arrived late and for the most part everything was up to par for your typical original style Courtyard brand hotel (meaning this is one of the very first ones which are old and actually built with a court yard in the middle). The room was remodeled and everything seemed fine until it was time to go to sleep. The adjoining doors were completely sound transparent and although I could tell the person in the adjacent room was speaking to someone on the phone in a normal voice it was as if he was in my room. Now I personally believe you should be able to do what you want in your room as long as it's reasonable and not intentionally disturbing others so although it was a long night I just dealt with it. After the difficult night of sleeping I checked out and was greeted with the compulsory, "How was your stay?" to which I responded by describing the night I just had. During my maybe fifteen second response I could see the defensive posture put up by the operations manager who was the person checking me out of my room. He almost cut me off by saying, "You know I can't refund your night" which obviously surprised me as I wasn't asking for anything or expecting anything except maybe an acknowledgement. He continued by saying what he could do is refund the equivalent of 10% of the amount...Arrived late and for the most part everything was up to par for your typical original style Courtyard brand hotel (meaning this is one of the very first ones which are old and actually built with a court yard in the middle). The room was remodeled and everything seemed fine until it was time to go to sleep. The adjoining doors were completely sound transparent and although I could tell the person in the adjacent room was speaking to someone on the phone in a normal voice it was as if he was in my room. Now I personally believe you should be able to do what you want in your room as long as it's reasonable and not intentionally disturbing others so although it was a long night I just dealt with it. After the difficult night of sleeping I checked out and was greeted with the compulsory, "How was your stay?" to which I responded by describing the night I just had. During my maybe fifteen second response I could see the defensive posture put up by the operations manager who was the person checking me out of my room. He almost cut me off by saying, "You know I can't refund your night" which obviously surprised me as I wasn't asking for anything or expecting anything except maybe an acknowledgement. He continued by saying what he could do is refund the equivalent of 10% of the amount I had paid in points. Just for a reference point it takes about fifteen room nights to earn a free night at this property so it really was in my opinion a token offer. I told him to keep the points and that I wasn't asking for anything. Really in my opinion his offer was insulting. I didn't even really want an apology just maybe a statement admitting this was something I didn't imagine. Anyway that is what really gave me a poor opinion of the place. They obviously know people who are bothered by noise won't like it here and have taken the stance that they don't want to hear about it. Taking my personal feelings out of it that should probably be the only objective thing considered. If that sort of thing bothers you find a more modern hotel.More</t>
   </si>
   <si>
+    <t>Andrew T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r287515876-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -728,6 +809,9 @@
     <t>We got here late at night last week. There are 6 of us in our family so we reserved a suite with a couple of queens and 2 hideabeds. Check in was almost instantaneous thanks to the very professional late night front desk manager. We drove around to the far side of the building and easily got to our room. Hideabeds weren't made up, but room service came right away and got the beds made up in no time at all. Room was well equipped although there was only one bathroom for all of us. I like the 2 tier wifi in that you can get a adequately fast connection for free and avoid the cost of the higher rate service (although as much as totally free wifi of course!). Mattresses on the queens were a bit dated and I woke up with serious back aches. Check out was a breeze. Overall - just what you expect from a Courtyard.More</t>
   </si>
   <si>
+    <t>alicekao</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r262301978-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -744,6 +828,9 @@
   </si>
   <si>
     <t>March 2015</t>
+  </si>
+  <si>
+    <t>hkcpa</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r259405188-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
@@ -776,6 +863,9 @@
 There is only one person at the front desk who cares about and has a personality to do this job right. She...I stayed here six years ago for the first time and this site has undergone a transformation. First the carpet which is orange and blue and looks like something that would come out of Panda Express. The elevator is located in the far corner of the building as far away from the front door as you can get which means a long trip from the front door to the elevator to get to your room. There is one wash machine and one dryer for over 200 rooms. The front desk staff did not know how the detergent in the wash machine worked as it is hooked up and you have to push a button. They have two carts for moving your luggage from your room to your car and these carts are kept not by the front door but about as far away from it as possible much to your inconvenience.Once a person on the front desk when the wash machine ate our money said that he didn't want to fill out the paperwork necessary to give us the money back which was a $1.75 took a dollar out of his pocket and gave it to us and said this would be good enough which means that he was shorted a dollar and we were shorted $.75.There is only one person at the front desk who cares about and has a personality to do this job right. She is a tall young lady does a great job.This location could learn a great deal from the Santa Rosa area Marriott Courtyard location.Personally, I would fire the manager and most of the front desk staff. More</t>
   </si>
   <si>
+    <t>KJohn685</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r259104140-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -792,6 +882,9 @@
   </si>
   <si>
     <t>Despite a room change due to overbooking, our family of 4 still had a nice, comfortable weekend sharing a King bedroom instead of 2 Queen beds.  It was lucky we brought an extra blow up bed and the room had the couch and was large enough to fit the extra bed.  The staff was running short, but still managed pleasant attitudes and assisted our questions.  Our first day's compensated breakfast was tasty and good value, but I imagine is not convenient for the rushed traveler.  (Their breakfast is an order then sit down style, not a buffet spread).  The room on the 2nd floor was surprisingly quiet, the King bed was very comfortable, and we enjoyed the roll-out desk table for playing games.  The sink outside the toilet room was perfect, but the shower room could use a fan to prevent the resulting hot humidity.  We enjoyed the view and location of this hotel and would definitely come back here again.More</t>
+  </si>
+  <si>
+    <t>sd2kw</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r250113084-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
@@ -825,6 +918,9 @@
 Service is pretty average. As a gold elite member, I was never given any upgrade option, bottle water or any code for the enhanced wifi. Membership benefits don't exist here. I was also never asked if I need help even I'm with a very little kid. They often missed a few things for the daily room service. The tea bags was not...As a Marriott elite member,  I almost always stay in this CY when I visit the nearby area. It is located behind a shopping plaza,   quiet at night and easy access to restaurants, shopping and highway. You can grab stuff from nearby Walmart, Target or even Costo if you forget some stuff for your travel. It is also interesting to see police officers are often sitting in the cafe having a coffee or working on their document, so I assume it's very safe.I think the hotel was remodeled a few years ago but tarts showing some sign of heavy use. The water in bathroom and sink may have issues depending on rooms. Most recently I stayed in a king room where hot water comes very slowly and previously I stayed in another king room with some minor sinking problem. Room is typical CY and bed is kind of comfy. Refrigerator is available in each room for you convenience. Lobby looks very nice and there is a sitting area in case you have friends visiting during your stay.Service is pretty average. As a gold elite member, I was never given any upgrade option, bottle water or any code for the enhanced wifi. Membership benefits don't exist here. I was also never asked if I need help even I'm with a very little kid. They often missed a few things for the daily room service. The tea bags was not refilled during my latest two-night stay.  I was given two conditioners but no shampoo. They don't give an additional box of face tissue even there are only about 10 pieces left.  The service used to be better but I felt obvious degradation during my last couple of stays.More</t>
   </si>
   <si>
+    <t>Erin L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r246698957-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -846,6 +942,9 @@
     <t>I've stayed in many hotels but most recently my experience with Marriott has been notable. This one was clean, staff was pleasant and accommodating, and all the amenities were in great working order.from check-in to check-out, we experienced very helpful staff- the check-in process was quick, and the young lady at the front desk was very pleasant even though we checked in very late. The room was modern and appeared to be newer. On our first night, I had requested from housekeeping that they leave additional towels and soaps- the following two days they did the same- leaving a stack of extra towels and soap- I didn't have to keep asking which might sound like a small thing, but it was very appreciated. While they don't have room service (which I expected), they did have a coffee/bistro type bar downstairs that served 'Starbucks' coffee and meals. The food was mediocre (also expected) but I will say they made over-medium eggs perfectly. Overall, I have stayed in hotels where I've paid much more and had many complaints.....in would definitely choose this location again!More</t>
   </si>
   <si>
+    <t>Cameron H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r246586127-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -862,6 +961,9 @@
   </si>
   <si>
     <t>We are Marriott Reward members and have stayed here every time we travel to LA - we would love to come back so here are our suggestions.1. Noise - constant huge noise from adjoining door - soundproofing should be reinforced.2. Room AC thermostat is digital and wireless now - when the battery is out/low, it causes AC to be on and off all night - very annoying.3. No/not enough hot/warm water for showers - it's chill in Hacienda Heights during winter time - a). shower water was not warm/hot enough; b). even when we finally got some hot water, it's only last for about 5~10 min on and off during 9-11pm. When we made complaint to the front desk, the answer was "the water heater works fine and we will send someone over".Staffs are friendly But apparently people who work at Courtyard Marriott Hacienda Heights have never stayed in any room at the hotel, so no one ever notice or understand the problems that we have and/or things that should get improved.More</t>
+  </si>
+  <si>
+    <t>mking8288</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r239342410-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
@@ -889,6 +991,9 @@
 Our check-in was a little slower (by 5 minutes) around 8 PM as we arrived later than planned after a busy day coming from Grand Canyon, AZ with the cheerful &amp; friendly front desk person on duty as she was busy helping 3 other customers ahead of us while answering phone calls.  Our...Extended family road trip took us to plan for a weeklong stay in this area and this is usually too far away from Pasadena/Alhambra area that we prefer, but our usual Arcadia hotels were sold out and/or overpriced, so we're plesantly surprised for our 4 nights stay here - will definitely stay on our short list for Marriott properties when returning to the area in the future.It's an easy, extra 25 minutes+ drive off I-60 Freeway &amp; then under 4 minutes up the road for a quick right turn onto the hotel; which is adjacent to a senior living complex next door - be careful with elders doing daily short walks slower while driving thru the big &amp; free parking lot, which has a great view of the hills north of LA.  On weekends, it's about 30 minutes into Orange County &amp; bypassed most of downtown LAX traffic and not a bad hotel location - took us only about 30 minutes to get to Santa Monica Pier. Getting around on weekday is another story for anyone familiar with the area's 8 lanes HOV or car-pool/Fast-Pass highways.  Our check-in was a little slower (by 5 minutes) around 8 PM as we arrived later than planned after a busy day coming from Grand Canyon, AZ with the cheerful &amp; friendly front desk person on duty as she was busy helping 3 other customers ahead of us while answering phone calls.  Our requests &amp; preference were note in the computer reservation system and honored - she assigned us a 2/F quiet room with 2 Queen beds facing the pool/courtyard area, and showed us where to park to be closer to the rear elevator with our luggage. (The parking area is well lighted at night &amp; entry into the building required a valid guest keycard)Our non-smoking 2 Queen-beds room at 350 SF is as expected, clean/bright &amp; comfortable, fresh smelling and has a coffee-maker and small refrigerator (4 CF sized) along with ice bucket - 40" plus HDTV with good choice of cable channels.  The desk lamp is very bright with 2 bulbs and 2 outlets for plugging in charger &amp; laptop power adapter - and very productive while surfing the internet. Free wireless internet are available in our guest room with a log-on for 1MB/256k speed adequate for emai, surfing &amp; social media. Faster 5MB speed is available for business travelers looking for better data flow @ $10/daily. The open access business center next to the lobby check-in has 4 PC for guest access and a free, quick print terminal for airline boarding passes &amp; check-in, no issues with printing our BP,  Daily newspaper (USA Today) are free for pickup in the lobby and there are comfortable sofa &amp; lounger to sit, socialize &amp; relax - the Market Place has variety of items at reasonable prices for sale.Our Queen-sized mattress seemed more than full-sized framed and a notch too far for our preference but otherwise great, fresh &amp; clean sheets - we returned after a late dinner &amp; realized that there're only 3 sets of towels for 4 adults in our group; and, left a note for housekeeping the next morning as we left for a busy Saturday around town - surely, got plentiful of extra towels for everyone. For solo business traveler or a couple, the wash area is fine but a bit too limited with just a towel rack next to the wash sink and just one inside the bath area next to the toilet - so I suggest CY property management consider putting up an extra rack or hooks along with wall, as it is also useful while changing clothes, etc. as we do not like putting items or dropping them on the floor.  The mini-closet is about 30" wide with the hairdryer and iron/board for guest's use, but space would be tight for an extended stay for 3+ guests, especially if rollers/spinners are also placed inside. Less than 1/8 mile on the main cross street - Colima Road are numerous shopping centers and strip malls, and we discovered many Chinese &amp; Asian restaurants, cafe and bakery for dining at all prices, many are often late for nighttime snacks - in addition to the ususal eateries. So while it's at least 20+ minutes to Valley Blvd. in the San Gabriel area where we have relatives &amp; friends, this CY has earned a spot on our return to stay list - we enjoyed our stay &amp; definitely see coming back.A small note - we're mistaken charged against our room for 2 bottled water claimed by someone else at the Market Place &amp; shown on our Express Checkout itemized invoice and it was promptly adjusted by the front desk staff.More</t>
   </si>
   <si>
+    <t>Clintonfam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r233675654-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -907,6 +1012,9 @@
     <t>I love this hotel! My sister lives in the area and I stay here every time I come visit.1. Super friendly staff- All the maintenance people and housekeepers greet you when you walk down the hall. The front desk are very friendly and helpful.2. Clean and comfortable rooms- The rooms are always very clean. The beds and pillows are super comfortable. Housekeeping does a great job.3. Amenities- great little cafe in lobby with good food, drinks and Starbucks coffee. A nice poolAnd hot tub that my nephews love to swim in. Exercise room, laundry room. Fridge in room.4. Close to mall and restaurants. You can walk to some restaurants and the mall. A must try is 85 degree bakery for breakfast! They have fantastic pastries and sea salt coffee! Everything you could want in a hotel. I love staying here. They make my stay comfortable and relaxing! More</t>
   </si>
   <si>
+    <t>FifteenMinutes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r232885867-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -928,6 +1036,9 @@
     <t>I don't often review domestic hotels as I usually travel internationally, but I had to go to Los Angeles county for business. I have stayed here before and I am always satisfied with this hotel. Yes, it's a Courtyard Marriott, and hence isn't particularly hip, but it is always spotless, very easy to get to (off the 60 freeway), quiet, and the staff is extremely nice and helpful. The rooms are big, clean, and have a nice desk for working, a little coffee maker, and a tiny refrigerator for your personal (free) use. Cable TV in room. The free WIFI is not blazing, but it is sufficient. Bathrooms are small but very nice and clean. The lobby and bar/restaurant area is big and welcoming. The food is average/OK. There is free parking, and the grounds are nice, and there is a decent sized pool. Except for business, there is nothing in this area to see culturally! Don't come here on vacation!More</t>
   </si>
   <si>
+    <t>yourachurtoo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r229241917-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -946,6 +1057,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Ashleyasaurus</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r221813041-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -973,6 +1087,9 @@
     <t>This hotel has all of the same amenities that most Courtyard Marriott's have - WiFi throughout the hotel, a café that serves Starbucks in the lobby, and clean, decent rooms. I stayed here as I had a meeting in Diamond Bar the following day and this was the nearest Marriott. The location seems lacking, there's not a whole lot of restaurants around the area, and nothing seems walkable. The hotel itself was extremely crowded with tour groups and I noticed a lot of guests left the doors to their rooms open and proceeded to talk loudly down the hallway which wasn't all that pleasant. Also, if you're Marriott Gold Elite don't expect an upgrade as I was told the hotel was completely sold out and usually is. I wouldn't recommend it for anyone on vacation, but the Courtyards are excellent hotels for people who travel a lot for business.More</t>
   </si>
   <si>
+    <t>LeanneLangan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r221575573-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -991,6 +1108,9 @@
     <t>The Courtyard Marriott in Hacienda Heights Ca. Is a super place to stay if in the area. Excellent staff, rooms, pool, location, on site breakfast, Starbucks and dinner items all in one place. Will book all stays here when in the area.More</t>
   </si>
   <si>
+    <t>jack783</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r213100918-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -1006,6 +1126,9 @@
     <t>Typical Courtyard property with nice lobby and rooms.  Front desk service was very enthusiastic and friendly.  There was nothing special about the rooms but they were spacious, clean and modern, again typical Courtyard.  There are a number of eating places within walking distance, as mentioned in previous posts.  The neighborhood, while not exactly residential, is not industrial either and it was not busy.  Importantly for me, the hotel is near the highway but the rooms do not overlook any major roads, so there was absolutely no traffic noise from my room.  I would definitely return if I need to spend the night in the area again.</t>
   </si>
   <si>
+    <t>Joyceqbo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r210538593-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -1018,6 +1141,9 @@
     <t>Very nice hotel for the cheap price. Nice garden, fresh air and free breakfast. A bit far from the west side but a very good deal if you have a car. I would expect everyone staying at this hotel with a carThere are two plazas with restaurants, shops and supermarkets very close to the hotel</t>
   </si>
   <si>
+    <t>Christina C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r207379714-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -1039,6 +1165,9 @@
     <t>Being a Marriott Silver Elite member, I make it a point to pretty much only stay at Marriott's when I need a hotel. The Courtyard hotels are the perfect option for my family of 5. This particular Courtyard was no exception. Great check in customer service! Our room on the 1st floor was easily accessible to parking and the lobby. My family liked The Bistro in the lobby area where you can order quality food and it has a Starbucks. Although we weren't on property that much due to my son's soccer tournament, we were able to walk to the shopping center about 100 yards down the street that had a Daiso (Japanese version of the dollar store) and a 38C Bakery (yummy tea/coffee drinks and bakery items!). Our room (2 Queen beds) was spacious and super comfortable. We had requested a crib during the reservation process and it was in our room waiting for us all set up and with baby shampoo/lotion thrown in too. If we ever have another tournament in the area, I would not hesitate to stay here again. Great experience.More</t>
   </si>
   <si>
+    <t>jetters888</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r200147774-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -1066,6 +1195,9 @@
     <t>I enjoyed staying in this hotel.  The staff is nice, the hotel room is quiet, clean and well kept, and the bed is very comfortable.  It's located close to some really tasty Asian restaurants.  Would definitely stay here again if I'm in the area.More</t>
   </si>
   <si>
+    <t>cable_consultant</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r199828262-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -1114,6 +1246,9 @@
     <t>I loved staying here. The place is nicely appointed, clean, quiet and safe. I would stay here again.I loved staying here. The place is nicely appointed, clean, quiet and safe. I would stay here again. niceMore</t>
   </si>
   <si>
+    <t>ChinaTourDotCom U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r186949304-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -1135,6 +1270,9 @@
     <t>I love this hotel, been staying here more than 5 times for work, it is conveniently located on Azusa Ave., with 2 minutes walking to the most famous bakery - 85'C Cafe (great place for breakfast, with all kinds of fresh breads) and lots of restaurants, stores; about 10-15 minutes walk to Macy's, 24 fitness, Marshals, Starbucks Coffee and many other stores. there are lots of Great Chinese Restaurants around.they also have a outdoor swimming pool, and a business center with about 4 PCs where you can print your flight ticket receipt and search for driving directions.if you are here in LA for sightseeing, it is a little far from Hollywood and Disney land, i would say, about 45 minutes to 1 hour without traffic maybe ,,,,More</t>
   </si>
   <si>
+    <t>mmhcw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r185350718-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -1171,6 +1309,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>Smell92</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r171563676-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -1186,6 +1327,9 @@
     <t>I was part of a tour group and stayed here twice, once on arrival to LA and once on leaving. This hotel is good for a stopover in LA. The shuttle bus from the airport was easy to locate and very handy quick journey.The rooms needed some updating but they were clean. The resturant was good and well priced. The service was nice and fast.</t>
   </si>
   <si>
+    <t>Beckyboo1986</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r170098808-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -1225,6 +1369,9 @@
     <t>This hotel has a great front desk and restaurant staff very helpful and friendly. It was just redecorated abd a note said I was the first to stay in the room since it was redecorated. The room was large and the housekeeper did a great job but I wish I had asked for a balcony room. The only con they were very stingy with their shampoo only a tiny tiny bottle and a tiny conditioner and there was no coffee in the lobby(they should take a lesson from the Hilton with free breakfast and the Hampton with a bag breakfast to go. You had to go into the restaurant to buy coffee however it was Starbucks. I did eat breakfast there a few mornings but they have a Marie Callender's 5 minutes away for a better breakfast.More</t>
   </si>
   <si>
+    <t>Joseph P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r152824703-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -1246,6 +1393,9 @@
     <t>I completed a 4 night stay at this hotel 2 weeks ago. In my room I found a notice that free coffee and tea typically provided in the lobby area had just been eliminated. The notice included the promise that they would deliver all the coffee you wanted for your in-room coffee pot and that's nice. But I've never been comfortable using the in-room pot and the powdered creamer can't match the liquid creamers usually provided in the lobby.  Plus, no tea option. Personally, I suspect this is an effort to increase sales of the high profit Starbucks sold at the lobby bistro, but I don't care for Starbucks coffee, too bitter for my taste. I like this hotel overall, clean, comfortable and friendly staff.  But if I can't get a good cup of coffee, I'm probably going back to the hotel in which we have a corporate agreement.More</t>
   </si>
   <si>
+    <t>Brian P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r142847133-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -1267,6 +1417,9 @@
     <t>The hotel is located near Buena Park California where I have a business meeting.  The hotel is on a main road that is surrounded by adventure themed restaurants, amusement complexes, and shopping malls.  The general area is a bit "aged" and the local mall stores are at the lower end of the spectrum indicating that this is not an upscale neighborhood.  For example, the mall had numerous "gold buying" shops and kiosks.  The anchor stores were Walmart and Ross. The hotel staff was friendly, and the rooms were spacious and clean.  This hotel setup is one that you drive around the building to get better access to your room after you check in.  No bell service was offered. Internet was free and average speed, I would have liked it a little faster.  Lobby has small store for drinks and sundries.  I slept well and area was quiet. The hotel has a small gym and a Jacuzzi.More</t>
   </si>
   <si>
+    <t>patsgo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r141790499-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -1286,6 +1439,9 @@
   </si>
   <si>
     <t>The lobby was remodeled since the last time I was here a couple of years ago, and features the new Courtyard style entry and Bistro eatery.  The lobby is warm and inviting.  The rooms are average and a bit dated, but are comfortable.  An improvement would be better quality bath towels.  The TV was situated aside of the bed, which made watching TV a bit awkward.  The workout room was small.  There are plenty of restaurants within walking distance down the hill from the hotel.  There is also a city park nearby.  I have stayed here multiple times and find it a good choice in the area.  The staff is generally attentive and friendly.More</t>
+  </si>
+  <si>
+    <t>jephyboy1</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r132614230-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
@@ -1319,6 +1475,9 @@
 Most other mid-tier hotels use horrible shampoo/conditioners...Timing: We had a two night stay here (Friday, Saturday).  Location: The hotel is nicely situated on a hill overlooking Hacienda Heights.  The immediate surrounding is very quite, but you are only 1 block away from all the great Chinese restaurants that this area has to offer.  I image most people staying here are to visit friends or family and not for 'tourist' reasons.Service: The staff was very friendly and check-in took only a few moments.  Every time I walked by the lobby, I was greeted.  I never had to call regarding any issues, so I can't comment specifically.Rooms: We had a single king room facing the pool, which was fine, but you could hear the kiddos playing in the pool area.  The bed was very comfortable.  The rooms were quiet either from lack of neighbors or thick walls, but I was appreciative either way.  A large LCD TV with many digital TV channel also came with the room.  There was also a small fridge hidden in the dresser.Amenities: There was a gym with a few treadmills (with TVs) and some free weights.  Nothing fancy, but enough to burn a few calories.  A jacuzzi and pool were also on site, but I never used it.  I also never used the lobby cafe/food bar, so I can't comment on that.  Internet was free and plenty fast for email and video skyping.Most other mid-tier hotels use horrible shampoo/conditioners (are you listening to me Holiday Inn), so the Paul Mitchell shampoo and conditioner was a nice touch.Parking: free and plentiful.Bottom line:  I booked a pretty good deal on the hotel stay and that made the difference.  There aren't that many hotels to choose from in this area, but I'm glad we stayed at this one.  It's convenient, quite, and hassle free.  I will likely stay again, assuming I can get a good price.More</t>
   </si>
   <si>
+    <t>Karen R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r132568731-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -1337,6 +1496,9 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>wr2001</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r129706547-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -1361,6 +1523,9 @@
     <t>Rverything was good except 2 small issues. Attendant was unnaproachable and had a bit of attitude all staff seemed out of it really. Also, why does a room need to be checked before checkout? My cc info was on file, i paid with cc and still had to wait for a room check to checkout. A waste of time. To be treated fairly childish.More</t>
   </si>
   <si>
+    <t>Kathysays</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r124371757-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -1379,6 +1544,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>Illini C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r121015138-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -1397,6 +1565,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>gopoets</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r120547159-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -1415,6 +1586,9 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>RosemeadTripin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r115536423-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -1433,6 +1607,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>wicked51</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r111893395-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -1451,6 +1628,9 @@
     <t>May 2011</t>
   </si>
   <si>
+    <t>ObjectiveUnknown</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r108894809-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -1469,6 +1649,9 @@
     <t>We stayed for two nights to attend a training seminar. The girl that checked us in was courteous and professional but did not offer too much information. I had to keep asking questions to get answers. For guest service, I did not observe anything that would deserve top ratings but it was not poor service either. The girl that checked us out was a little friendlier.The property was clean and maintained well. The parking lot is a bit dark but I did not see anyone unusual or characters that may cause concern. Most parking spaces are within views of the bedroom window. Exterior doors to the building are secured and are only access with hotel key cards.We stayed in a double queen. The bedroom was spacious and clean. The bed was super comfortable. Everything works like it supposed to so we don't really have any complaints. We both agreed it was a good stay and it was really comfortable. I would most likely stay here again if I am in the area.In addition, the continental breakfast included hot waffles.More</t>
   </si>
   <si>
+    <t>westlakewarrior</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r64342057-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -1487,6 +1670,9 @@
     <t>May 2010</t>
   </si>
   <si>
+    <t>mommyclaire</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r63046681-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -1506,6 +1692,9 @@
   </si>
   <si>
     <t>I've stayed in this hotel numerous times since my daughter started attending nearby Whittier College.  It is a much better alternative to the Radisson Hotel in Whittier, which is, by all accounts, a bad deal.  This hotel is clean, with well stocked rooms. The front desk personnel are more than helpful and go out of their way to make your stay a nice one.  Though the breakfast isn't free, it is decent.  The hotel is located on a hill above a strip mall, and is very quiet.  It takes about five minutes to get anywhere from here, including over the hill to Whittier, Biola, or other colleges in the area.More</t>
+  </si>
+  <si>
+    <t>freqstayGA</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r36235428-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
@@ -1531,6 +1720,9 @@
 We arrived early afternoon and were able to walk around the hotel peacefully and that lasted about a day.  A group of adults with their children checked in and instantly took over the building.  The children ran around and flocked the gym whithout any supervision.  The pool area were taken over by jumping on whoever in the pool and by what appeared to be smoking drank dads with their beer, loud music, and very loud voices.   When they came back from playing baseball (apparent by their baseball uniforms), the party started and it lasted 'til midnight.  The staff did not seem to go around the hotel to check the facility,  We had to call the front desk at 11:30pm to get some help in lowering the noise from the party out in the courtyard to get some sleep the night before we check out, .  We're not sure if this is the norm in the summer at this hotel when some people who don't have a clue on how to behave at hotels...The area is quiet even when it is surrounded by wonderful selection of shopping stores and good restaurants to choose from.  The lobby was clean and quiet with a separate TV viewing  area.  Our room was also clean with fresh towels and bed linens, and the staff were friendly and corteous.  The exercise room was not big but comfortable, complete with fresh towels and complimentary head phones.  We arrived early afternoon and were able to walk around the hotel peacefully and that lasted about a day.  A group of adults with their children checked in and instantly took over the building.  The children ran around and flocked the gym whithout any supervision.  The pool area were taken over by jumping on whoever in the pool and by what appeared to be smoking drank dads with their beer, loud music, and very loud voices.   When they came back from playing baseball (apparent by their baseball uniforms), the party started and it lasted 'til midnight.  The staff did not seem to go around the hotel to check the facility,  We had to call the front desk at 11:30pm to get some help in lowering the noise from the party out in the courtyard to get some sleep the night before we check out, .  We're not sure if this is the norm in the summer at this hotel when some people who don't have a clue on how to behave at hotels stay with their kids.  Overall, this hotel is a nice hotel with friendly staff.  We recommend this hotel to those who are not pool goers and to business people that get out early and leave early.  This was our first stay at this hotel and pray that these people were not the usual guests.  Our family will try this hotel again next year but we will request a room away from the courtyard on the second  floorMore</t>
   </si>
   <si>
+    <t>Italophilia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r8255707-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -1552,6 +1744,9 @@
     <t>We arrived around 9pm and check-in went smoothly. However, when we tried to park and get into the hotel through a side entrance, there were about 20 young adults milling about and cars driving fast around the parking lot. It felt like a riot was about to happen, and it was scary. We went to another entrance and called the front desk. We asked them to send security before things got out of hand.  In the meantime, we got the kids in the room, along with our luggage. Some of the young adults wanted us to let them into the hotel by banging on glass doors to get our attention, but we ignored them. Maybe someone was just having a party at the hotel, but it all felt wrong. Not being familiar with the neighborhoods, I really wasn't sure if we were not in the best part of town.More</t>
   </si>
   <si>
+    <t>hokiejane</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r7154237-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -1568,6 +1763,9 @@
   </si>
   <si>
     <t>March 2007</t>
+  </si>
+  <si>
+    <t>Joan L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d77141-r5728782-Courtyard_Los_Angeles_Hacienda_Heights_Orange_County-Hacienda_Heights_California.html</t>
@@ -2093,43 +2291,47 @@
       <c r="A2" t="n">
         <v>27510</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>132785</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -2147,50 +2349,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>27510</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>118133</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2204,50 +2410,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>27510</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>72118</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2261,50 +2471,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>27510</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>132786</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2316,56 +2530,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>27510</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>132787</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -2381,56 +2599,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="X6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>27510</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>132788</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>85</v>
       </c>
-      <c r="J7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>80</v>
-      </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2444,50 +2666,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>27510</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>132789</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2499,56 +2725,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="X8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>27510</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>34700</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -2566,56 +2796,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="X9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>27510</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>508</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -2633,56 +2867,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="X10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>27510</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>42315</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -2700,50 +2938,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>27510</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>132790</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="L12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="O12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -2761,56 +3003,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="X12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="Y12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>27510</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>132791</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>2</v>
@@ -2828,50 +3074,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>27510</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>132792</v>
+      </c>
+      <c r="C14" t="s">
+        <v>150</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="K14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2885,50 +3135,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>27510</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>9169</v>
+      </c>
+      <c r="C15" t="s">
+        <v>156</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="J15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2942,50 +3196,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>27510</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>132793</v>
+      </c>
+      <c r="C16" t="s">
+        <v>162</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="K16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2999,50 +3257,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>27510</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>132794</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3062,50 +3324,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>27510</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>132795</v>
+      </c>
+      <c r="C18" t="s">
+        <v>177</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="J18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="K18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -3123,56 +3389,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="X18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="Y18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>27510</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>132796</v>
+      </c>
+      <c r="C19" t="s">
+        <v>186</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="J19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="K19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3186,50 +3456,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>27510</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>132797</v>
+      </c>
+      <c r="C20" t="s">
+        <v>193</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="J20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="K20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="O20" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3243,50 +3517,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>27510</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>132798</v>
+      </c>
+      <c r="C21" t="s">
+        <v>200</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="J21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="K21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -3306,50 +3584,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>27510</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>132799</v>
+      </c>
+      <c r="C22" t="s">
+        <v>207</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="J22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="K22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -3367,56 +3649,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="X22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="Y22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>27510</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>86388</v>
+      </c>
+      <c r="C23" t="s">
+        <v>217</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="J23" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="K23" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3434,50 +3720,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>27510</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>80141</v>
+      </c>
+      <c r="C24" t="s">
+        <v>224</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="J24" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="K24" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="L24" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="O24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3495,50 +3785,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>27510</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>20798</v>
+      </c>
+      <c r="C25" t="s">
+        <v>231</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="J25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="K25" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="L25" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3556,50 +3850,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>27510</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>132800</v>
+      </c>
+      <c r="C26" t="s">
+        <v>238</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="J26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="K26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3613,50 +3911,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>27510</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>132801</v>
+      </c>
+      <c r="C27" t="s">
+        <v>245</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="J27" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="K27" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="L27" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="O27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3674,56 +3976,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="X27" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="Y27" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>27510</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C28" t="s">
+        <v>254</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="J28" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="K28" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="O28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3737,50 +4043,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>27510</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>132802</v>
+      </c>
+      <c r="C29" t="s">
+        <v>261</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="J29" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="K29" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="O29" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3798,50 +4108,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>27510</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>132803</v>
+      </c>
+      <c r="C30" t="s">
+        <v>268</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="J30" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="K30" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="O30" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3853,56 +4167,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="X30" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="Y30" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>27510</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>132804</v>
+      </c>
+      <c r="C31" t="s">
+        <v>277</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="J31" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K31" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="L31" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="O31" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3922,50 +4240,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>27510</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>132805</v>
+      </c>
+      <c r="C32" t="s">
+        <v>284</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="J32" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="K32" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="L32" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="O32" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -3983,56 +4305,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="X32" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="Y32" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>27510</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>50340</v>
+      </c>
+      <c r="C33" t="s">
+        <v>294</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="J33" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="K33" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="L33" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="O33" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -4052,50 +4378,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>27510</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>43560</v>
+      </c>
+      <c r="C34" t="s">
+        <v>302</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="J34" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="K34" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="L34" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="O34" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -4113,50 +4443,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>27510</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>132806</v>
+      </c>
+      <c r="C35" t="s">
+        <v>309</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="J35" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="K35" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="L35" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="O35" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4176,41 +4510,45 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>27510</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>132807</v>
+      </c>
+      <c r="C36" t="s">
+        <v>317</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="J36" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="K36" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="L36" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
@@ -4229,50 +4567,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>27510</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>132808</v>
+      </c>
+      <c r="C37" t="s">
+        <v>324</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="J37" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="K37" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="L37" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -4290,50 +4632,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>27510</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>132809</v>
+      </c>
+      <c r="C38" t="s">
+        <v>332</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="J38" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="K38" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="L38" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="O38" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4351,50 +4697,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>27510</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>132810</v>
+      </c>
+      <c r="C39" t="s">
+        <v>339</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="J39" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="K39" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="L39" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4412,56 +4762,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="X39" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="Y39" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>27510</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>132811</v>
+      </c>
+      <c r="C40" t="s">
+        <v>349</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="J40" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="K40" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="L40" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="O40" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4477,56 +4831,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="X40" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="Y40" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>27510</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>132812</v>
+      </c>
+      <c r="C41" t="s">
+        <v>356</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="J41" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K41" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="L41" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4540,41 +4898,45 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>27510</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>132813</v>
+      </c>
+      <c r="C42" t="s">
+        <v>362</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="J42" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="K42" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="L42" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
@@ -4593,50 +4955,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>27510</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>15384</v>
+      </c>
+      <c r="C43" t="s">
+        <v>367</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="J43" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="K43" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="L43" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="O43" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4656,50 +5022,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>27510</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>132814</v>
+      </c>
+      <c r="C44" t="s">
+        <v>375</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="J44" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="K44" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="L44" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="O44" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -4721,56 +5091,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="X44" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="Y44" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>27510</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>132815</v>
+      </c>
+      <c r="C45" t="s">
+        <v>385</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="J45" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="K45" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="L45" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4782,56 +5156,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="X45" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="Y45" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>27510</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>132794</v>
+      </c>
+      <c r="C46" t="s">
+        <v>177</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="J46" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="K46" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="L46" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -4853,56 +5231,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="X46" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="Y46" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>27510</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>132816</v>
+      </c>
+      <c r="C47" t="s">
+        <v>402</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="J47" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="K47" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="L47" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -4926,50 +5308,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>27510</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>132817</v>
+      </c>
+      <c r="C48" t="s">
+        <v>410</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>365</v>
+        <v>411</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="J48" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="K48" t="s">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="L48" t="s">
-        <v>369</v>
+        <v>415</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="O48" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -4993,50 +5379,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>369</v>
+        <v>415</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>27510</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>132814</v>
+      </c>
+      <c r="C49" t="s">
+        <v>385</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="J49" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="K49" t="s">
-        <v>374</v>
+        <v>420</v>
       </c>
       <c r="L49" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5060,41 +5450,45 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>27510</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>132818</v>
+      </c>
+      <c r="C50" t="s">
+        <v>423</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="J50" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="K50" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="L50" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
@@ -5123,50 +5517,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>27510</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>132819</v>
+      </c>
+      <c r="C51" t="s">
+        <v>429</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="J51" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="K51" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="L51" t="s">
-        <v>386</v>
+        <v>434</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="O51" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -5190,50 +5588,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>386</v>
+        <v>434</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>27510</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>118133</v>
+      </c>
+      <c r="C52" t="s">
+        <v>55</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>389</v>
+        <v>437</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="J52" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="K52" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="L52" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -5257,50 +5659,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>27510</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>11708</v>
+      </c>
+      <c r="C53" t="s">
+        <v>443</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="J53" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="K53" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="L53" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -5324,50 +5730,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>27510</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>2467</v>
+      </c>
+      <c r="C54" t="s">
+        <v>451</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>403</v>
+        <v>453</v>
       </c>
       <c r="J54" t="s">
-        <v>404</v>
+        <v>454</v>
       </c>
       <c r="K54" t="s">
-        <v>405</v>
+        <v>455</v>
       </c>
       <c r="L54" t="s">
-        <v>406</v>
+        <v>456</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>407</v>
+        <v>457</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
@@ -5391,50 +5801,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>27510</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>132820</v>
+      </c>
+      <c r="C55" t="s">
+        <v>459</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="J55" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
       <c r="K55" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="L55" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -5458,50 +5872,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>27510</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>132821</v>
+      </c>
+      <c r="C56" t="s">
+        <v>467</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
       <c r="J56" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="K56" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="L56" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>421</v>
+        <v>473</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -5525,50 +5943,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>27510</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>8320</v>
+      </c>
+      <c r="C57" t="s">
+        <v>475</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="J57" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="K57" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
       <c r="L57" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -5592,41 +6014,45 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>27510</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>132822</v>
+      </c>
+      <c r="C58" t="s">
+        <v>482</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="J58" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="K58" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="L58" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
@@ -5653,56 +6079,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="X58" t="s">
-        <v>435</v>
+        <v>489</v>
       </c>
       <c r="Y58" t="s">
-        <v>436</v>
+        <v>490</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>27510</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>132823</v>
+      </c>
+      <c r="C59" t="s">
+        <v>491</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>437</v>
+        <v>492</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="J59" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="K59" t="s">
-        <v>440</v>
+        <v>495</v>
       </c>
       <c r="L59" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -5716,50 +6146,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>27510</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>132824</v>
+      </c>
+      <c r="C60" t="s">
+        <v>498</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>443</v>
+        <v>499</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="J60" t="s">
-        <v>445</v>
+        <v>501</v>
       </c>
       <c r="K60" t="s">
-        <v>446</v>
+        <v>502</v>
       </c>
       <c r="L60" t="s">
-        <v>447</v>
+        <v>503</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="O60" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -5783,50 +6217,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>447</v>
+        <v>503</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>27510</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>132825</v>
+      </c>
+      <c r="C61" t="s">
+        <v>505</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="J61" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="K61" t="s">
-        <v>452</v>
+        <v>509</v>
       </c>
       <c r="L61" t="s">
-        <v>453</v>
+        <v>510</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>2</v>
@@ -5850,50 +6288,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>453</v>
+        <v>510</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>27510</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>132826</v>
+      </c>
+      <c r="C62" t="s">
+        <v>512</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>455</v>
+        <v>513</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
       <c r="J62" t="s">
-        <v>457</v>
+        <v>515</v>
       </c>
       <c r="K62" t="s">
-        <v>458</v>
+        <v>516</v>
       </c>
       <c r="L62" t="s">
-        <v>459</v>
+        <v>517</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -5913,50 +6355,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>459</v>
+        <v>517</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>27510</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>132827</v>
+      </c>
+      <c r="C63" t="s">
+        <v>519</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>461</v>
+        <v>520</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>462</v>
+        <v>521</v>
       </c>
       <c r="J63" t="s">
-        <v>463</v>
+        <v>522</v>
       </c>
       <c r="K63" t="s">
-        <v>464</v>
+        <v>523</v>
       </c>
       <c r="L63" t="s">
-        <v>465</v>
+        <v>524</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>466</v>
+        <v>525</v>
       </c>
       <c r="O63" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P63" t="n">
         <v>3</v>
@@ -5976,50 +6422,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>465</v>
+        <v>524</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>27510</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>132828</v>
+      </c>
+      <c r="C64" t="s">
+        <v>526</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>467</v>
+        <v>527</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>468</v>
+        <v>528</v>
       </c>
       <c r="J64" t="s">
-        <v>469</v>
+        <v>529</v>
       </c>
       <c r="K64" t="s">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="L64" t="s">
-        <v>471</v>
+        <v>531</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>466</v>
+        <v>525</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -6043,50 +6493,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>27510</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>132829</v>
+      </c>
+      <c r="C65" t="s">
+        <v>533</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>473</v>
+        <v>534</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>474</v>
+        <v>535</v>
       </c>
       <c r="J65" t="s">
-        <v>475</v>
+        <v>536</v>
       </c>
       <c r="K65" t="s">
-        <v>476</v>
+        <v>537</v>
       </c>
       <c r="L65" t="s">
-        <v>477</v>
+        <v>538</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>478</v>
+        <v>539</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6110,50 +6564,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>477</v>
+        <v>538</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>27510</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>132830</v>
+      </c>
+      <c r="C66" t="s">
+        <v>540</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>479</v>
+        <v>541</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>480</v>
+        <v>542</v>
       </c>
       <c r="J66" t="s">
-        <v>481</v>
+        <v>543</v>
       </c>
       <c r="K66" t="s">
-        <v>482</v>
+        <v>544</v>
       </c>
       <c r="L66" t="s">
-        <v>483</v>
+        <v>545</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>484</v>
+        <v>546</v>
       </c>
       <c r="O66" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P66" t="n">
         <v>3</v>
@@ -6177,50 +6635,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>485</v>
+        <v>547</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>27510</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>132831</v>
+      </c>
+      <c r="C67" t="s">
+        <v>548</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>486</v>
+        <v>549</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>487</v>
+        <v>550</v>
       </c>
       <c r="J67" t="s">
-        <v>488</v>
+        <v>551</v>
       </c>
       <c r="K67" t="s">
-        <v>489</v>
+        <v>552</v>
       </c>
       <c r="L67" t="s">
-        <v>490</v>
+        <v>553</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>491</v>
+        <v>554</v>
       </c>
       <c r="O67" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6244,50 +6706,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>492</v>
+        <v>555</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>27510</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>132832</v>
+      </c>
+      <c r="C68" t="s">
+        <v>556</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>493</v>
+        <v>557</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>494</v>
+        <v>558</v>
       </c>
       <c r="J68" t="s">
-        <v>495</v>
+        <v>559</v>
       </c>
       <c r="K68" t="s">
-        <v>496</v>
+        <v>560</v>
       </c>
       <c r="L68" t="s">
-        <v>497</v>
+        <v>561</v>
       </c>
       <c r="M68" t="n">
         <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>498</v>
+        <v>562</v>
       </c>
       <c r="O68" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -6311,50 +6777,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>499</v>
+        <v>563</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>27510</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>132833</v>
+      </c>
+      <c r="C69" t="s">
+        <v>564</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>500</v>
+        <v>565</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>501</v>
+        <v>566</v>
       </c>
       <c r="J69" t="s">
-        <v>502</v>
+        <v>567</v>
       </c>
       <c r="K69" t="s">
-        <v>503</v>
+        <v>568</v>
       </c>
       <c r="L69" t="s">
-        <v>504</v>
+        <v>569</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>505</v>
+        <v>570</v>
       </c>
       <c r="O69" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6378,50 +6848,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>504</v>
+        <v>569</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>27510</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>117141</v>
+      </c>
+      <c r="C70" t="s">
+        <v>571</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>506</v>
+        <v>572</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>507</v>
+        <v>573</v>
       </c>
       <c r="J70" t="s">
-        <v>508</v>
+        <v>574</v>
       </c>
       <c r="K70" t="s">
-        <v>509</v>
+        <v>575</v>
       </c>
       <c r="L70" t="s">
-        <v>510</v>
+        <v>576</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>511</v>
+        <v>577</v>
       </c>
       <c r="O70" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6445,7 +6919,7 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>512</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_156.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_156.xlsx
@@ -2292,7 +2292,7 @@
         <v>27510</v>
       </c>
       <c r="B2" t="n">
-        <v>132785</v>
+        <v>163590</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -2479,7 +2479,7 @@
         <v>27510</v>
       </c>
       <c r="B5" t="n">
-        <v>132786</v>
+        <v>163591</v>
       </c>
       <c r="C5" t="s">
         <v>68</v>
@@ -2544,7 +2544,7 @@
         <v>27510</v>
       </c>
       <c r="B6" t="n">
-        <v>132787</v>
+        <v>163592</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
@@ -2613,7 +2613,7 @@
         <v>27510</v>
       </c>
       <c r="B7" t="n">
-        <v>132788</v>
+        <v>163593</v>
       </c>
       <c r="C7" t="s">
         <v>89</v>
@@ -2674,7 +2674,7 @@
         <v>27510</v>
       </c>
       <c r="B8" t="n">
-        <v>132789</v>
+        <v>163594</v>
       </c>
       <c r="C8" t="s">
         <v>95</v>
@@ -2946,7 +2946,7 @@
         <v>27510</v>
       </c>
       <c r="B12" t="n">
-        <v>132790</v>
+        <v>163595</v>
       </c>
       <c r="C12" t="s">
         <v>134</v>
@@ -3017,7 +3017,7 @@
         <v>27510</v>
       </c>
       <c r="B13" t="n">
-        <v>132791</v>
+        <v>163596</v>
       </c>
       <c r="C13" t="s">
         <v>144</v>
@@ -3082,7 +3082,7 @@
         <v>27510</v>
       </c>
       <c r="B14" t="n">
-        <v>132792</v>
+        <v>163597</v>
       </c>
       <c r="C14" t="s">
         <v>150</v>
@@ -3204,7 +3204,7 @@
         <v>27510</v>
       </c>
       <c r="B16" t="n">
-        <v>132793</v>
+        <v>163598</v>
       </c>
       <c r="C16" t="s">
         <v>162</v>
@@ -3265,7 +3265,7 @@
         <v>27510</v>
       </c>
       <c r="B17" t="n">
-        <v>132794</v>
+        <v>163599</v>
       </c>
       <c r="C17" t="s">
         <v>170</v>
@@ -3332,7 +3332,7 @@
         <v>27510</v>
       </c>
       <c r="B18" t="n">
-        <v>132795</v>
+        <v>132797</v>
       </c>
       <c r="C18" t="s">
         <v>177</v>
@@ -3403,7 +3403,7 @@
         <v>27510</v>
       </c>
       <c r="B19" t="n">
-        <v>132796</v>
+        <v>163600</v>
       </c>
       <c r="C19" t="s">
         <v>186</v>
@@ -3464,7 +3464,7 @@
         <v>27510</v>
       </c>
       <c r="B20" t="n">
-        <v>132797</v>
+        <v>163601</v>
       </c>
       <c r="C20" t="s">
         <v>193</v>
@@ -3525,7 +3525,7 @@
         <v>27510</v>
       </c>
       <c r="B21" t="n">
-        <v>132798</v>
+        <v>163602</v>
       </c>
       <c r="C21" t="s">
         <v>200</v>
@@ -3592,7 +3592,7 @@
         <v>27510</v>
       </c>
       <c r="B22" t="n">
-        <v>132799</v>
+        <v>163603</v>
       </c>
       <c r="C22" t="s">
         <v>207</v>
@@ -3858,7 +3858,7 @@
         <v>27510</v>
       </c>
       <c r="B26" t="n">
-        <v>132800</v>
+        <v>163604</v>
       </c>
       <c r="C26" t="s">
         <v>238</v>
@@ -3919,7 +3919,7 @@
         <v>27510</v>
       </c>
       <c r="B27" t="n">
-        <v>132801</v>
+        <v>163605</v>
       </c>
       <c r="C27" t="s">
         <v>245</v>
@@ -4051,7 +4051,7 @@
         <v>27510</v>
       </c>
       <c r="B29" t="n">
-        <v>132802</v>
+        <v>163606</v>
       </c>
       <c r="C29" t="s">
         <v>261</v>
@@ -4116,7 +4116,7 @@
         <v>27510</v>
       </c>
       <c r="B30" t="n">
-        <v>132803</v>
+        <v>163607</v>
       </c>
       <c r="C30" t="s">
         <v>268</v>
@@ -4181,7 +4181,7 @@
         <v>27510</v>
       </c>
       <c r="B31" t="n">
-        <v>132804</v>
+        <v>163608</v>
       </c>
       <c r="C31" t="s">
         <v>277</v>
@@ -4248,7 +4248,7 @@
         <v>27510</v>
       </c>
       <c r="B32" t="n">
-        <v>132805</v>
+        <v>163609</v>
       </c>
       <c r="C32" t="s">
         <v>284</v>
@@ -4451,7 +4451,7 @@
         <v>27510</v>
       </c>
       <c r="B35" t="n">
-        <v>132806</v>
+        <v>163610</v>
       </c>
       <c r="C35" t="s">
         <v>309</v>
@@ -4518,7 +4518,7 @@
         <v>27510</v>
       </c>
       <c r="B36" t="n">
-        <v>132807</v>
+        <v>163611</v>
       </c>
       <c r="C36" t="s">
         <v>317</v>
@@ -4575,7 +4575,7 @@
         <v>27510</v>
       </c>
       <c r="B37" t="n">
-        <v>132808</v>
+        <v>163612</v>
       </c>
       <c r="C37" t="s">
         <v>324</v>
@@ -4640,7 +4640,7 @@
         <v>27510</v>
       </c>
       <c r="B38" t="n">
-        <v>132809</v>
+        <v>163613</v>
       </c>
       <c r="C38" t="s">
         <v>332</v>
@@ -4705,7 +4705,7 @@
         <v>27510</v>
       </c>
       <c r="B39" t="n">
-        <v>132810</v>
+        <v>163614</v>
       </c>
       <c r="C39" t="s">
         <v>339</v>
@@ -4776,7 +4776,7 @@
         <v>27510</v>
       </c>
       <c r="B40" t="n">
-        <v>132811</v>
+        <v>163615</v>
       </c>
       <c r="C40" t="s">
         <v>349</v>
@@ -4845,7 +4845,7 @@
         <v>27510</v>
       </c>
       <c r="B41" t="n">
-        <v>132812</v>
+        <v>163616</v>
       </c>
       <c r="C41" t="s">
         <v>356</v>
@@ -4906,7 +4906,7 @@
         <v>27510</v>
       </c>
       <c r="B42" t="n">
-        <v>132813</v>
+        <v>163617</v>
       </c>
       <c r="C42" t="s">
         <v>362</v>
@@ -5030,7 +5030,7 @@
         <v>27510</v>
       </c>
       <c r="B44" t="n">
-        <v>132814</v>
+        <v>163618</v>
       </c>
       <c r="C44" t="s">
         <v>375</v>
@@ -5105,7 +5105,7 @@
         <v>27510</v>
       </c>
       <c r="B45" t="n">
-        <v>132815</v>
+        <v>132798</v>
       </c>
       <c r="C45" t="s">
         <v>385</v>
@@ -5170,7 +5170,7 @@
         <v>27510</v>
       </c>
       <c r="B46" t="n">
-        <v>132794</v>
+        <v>132797</v>
       </c>
       <c r="C46" t="s">
         <v>177</v>
@@ -5245,7 +5245,7 @@
         <v>27510</v>
       </c>
       <c r="B47" t="n">
-        <v>132816</v>
+        <v>163619</v>
       </c>
       <c r="C47" t="s">
         <v>402</v>
@@ -5316,7 +5316,7 @@
         <v>27510</v>
       </c>
       <c r="B48" t="n">
-        <v>132817</v>
+        <v>163620</v>
       </c>
       <c r="C48" t="s">
         <v>410</v>
@@ -5387,7 +5387,7 @@
         <v>27510</v>
       </c>
       <c r="B49" t="n">
-        <v>132814</v>
+        <v>132798</v>
       </c>
       <c r="C49" t="s">
         <v>385</v>
@@ -5458,7 +5458,7 @@
         <v>27510</v>
       </c>
       <c r="B50" t="n">
-        <v>132818</v>
+        <v>163621</v>
       </c>
       <c r="C50" t="s">
         <v>423</v>
@@ -5525,7 +5525,7 @@
         <v>27510</v>
       </c>
       <c r="B51" t="n">
-        <v>132819</v>
+        <v>163622</v>
       </c>
       <c r="C51" t="s">
         <v>429</v>
@@ -5809,7 +5809,7 @@
         <v>27510</v>
       </c>
       <c r="B55" t="n">
-        <v>132820</v>
+        <v>163623</v>
       </c>
       <c r="C55" t="s">
         <v>459</v>
@@ -5880,7 +5880,7 @@
         <v>27510</v>
       </c>
       <c r="B56" t="n">
-        <v>132821</v>
+        <v>163624</v>
       </c>
       <c r="C56" t="s">
         <v>467</v>
@@ -6022,7 +6022,7 @@
         <v>27510</v>
       </c>
       <c r="B58" t="n">
-        <v>132822</v>
+        <v>163625</v>
       </c>
       <c r="C58" t="s">
         <v>482</v>
@@ -6093,7 +6093,7 @@
         <v>27510</v>
       </c>
       <c r="B59" t="n">
-        <v>132823</v>
+        <v>163626</v>
       </c>
       <c r="C59" t="s">
         <v>491</v>
@@ -6154,7 +6154,7 @@
         <v>27510</v>
       </c>
       <c r="B60" t="n">
-        <v>132824</v>
+        <v>163627</v>
       </c>
       <c r="C60" t="s">
         <v>498</v>
@@ -6225,7 +6225,7 @@
         <v>27510</v>
       </c>
       <c r="B61" t="n">
-        <v>132825</v>
+        <v>163628</v>
       </c>
       <c r="C61" t="s">
         <v>505</v>
@@ -6296,7 +6296,7 @@
         <v>27510</v>
       </c>
       <c r="B62" t="n">
-        <v>132826</v>
+        <v>163629</v>
       </c>
       <c r="C62" t="s">
         <v>512</v>
@@ -6363,7 +6363,7 @@
         <v>27510</v>
       </c>
       <c r="B63" t="n">
-        <v>132827</v>
+        <v>163630</v>
       </c>
       <c r="C63" t="s">
         <v>519</v>
@@ -6430,7 +6430,7 @@
         <v>27510</v>
       </c>
       <c r="B64" t="n">
-        <v>132828</v>
+        <v>163631</v>
       </c>
       <c r="C64" t="s">
         <v>526</v>
@@ -6501,7 +6501,7 @@
         <v>27510</v>
       </c>
       <c r="B65" t="n">
-        <v>132829</v>
+        <v>163632</v>
       </c>
       <c r="C65" t="s">
         <v>533</v>
@@ -6572,7 +6572,7 @@
         <v>27510</v>
       </c>
       <c r="B66" t="n">
-        <v>132830</v>
+        <v>163633</v>
       </c>
       <c r="C66" t="s">
         <v>540</v>
@@ -6643,7 +6643,7 @@
         <v>27510</v>
       </c>
       <c r="B67" t="n">
-        <v>132831</v>
+        <v>163634</v>
       </c>
       <c r="C67" t="s">
         <v>548</v>
@@ -6714,7 +6714,7 @@
         <v>27510</v>
       </c>
       <c r="B68" t="n">
-        <v>132832</v>
+        <v>163635</v>
       </c>
       <c r="C68" t="s">
         <v>556</v>
@@ -6785,7 +6785,7 @@
         <v>27510</v>
       </c>
       <c r="B69" t="n">
-        <v>132833</v>
+        <v>163636</v>
       </c>
       <c r="C69" t="s">
         <v>564</v>
